--- a/templates/Meralco.xlsx
+++ b/templates/Meralco.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="79">
   <si>
     <t xml:space="preserve"> Fund Cluster :  </t>
   </si>
@@ -241,6 +241,30 @@
   <si>
     <t>Official Receipt No. &amp; Date/Other Documents</t>
   </si>
+  <si>
+    <t>Fund Cluster:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date:</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>Calamba, City</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>2 02 01 010</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +279,7 @@
     <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +443,33 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1417,137 +1468,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,6 +2101,159 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2066,9 +2270,343 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -2082,6 +2620,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3227,7 +3768,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>national irrigation administration</a:t>
+                <a:t>National Irrigation Administration</a:t>
               </a:r>
               <a:endParaRPr sz="1600">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -3253,7 +3794,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204"/>
                   <a:sym typeface="Arial" panose="020B0604020202020204"/>
                 </a:rPr>
-                <a:t>regional office no. iv-a (calabarzon)</a:t>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
               </a:r>
               <a:endParaRPr sz="1200">
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
@@ -3347,6 +3888,2016 @@
         <a:xfrm>
           <a:off x="9677400" y="15830550"/>
           <a:ext cx="1362075" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6686550" cy="1304925"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Shape 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="32299275"/>
+          <a:ext cx="6686550" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-GB"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>National Hi-way,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 502-0145 (COA) • 559 0727 (Regional Manager)</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> • 576 5543 (Equipment) • 559-0724 (Finance) Telefax No.: (049) 559 0726</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Email:r4a@nia.gov.ph●Website: region4a.nia.gov.ph  Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>TIN: 000916415043</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="3A7D22"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buSzPts val="900"/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" i="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              <a:ea typeface="Arial" panose="020B0604020202020204"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+              <a:sym typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>NIA-RO-AFD-FIN-INT-Form-209-Rev00</a:t>
+          </a:r>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8648700" cy="1019175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Shape 2" title="Drawing"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="18126075"/>
+          <a:ext cx="8648700" cy="1019175"/>
+          <a:chOff x="1021650" y="3270413"/>
+          <a:chExt cx="8648700" cy="1019175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Shape 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1021650" y="3270413"/>
+            <a:ext cx="8648700" cy="1019175"/>
+            <a:chOff x="130968" y="71438"/>
+            <a:chExt cx="7679488" cy="1262061"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Shape 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="130968" y="71438"/>
+              <a:ext cx="7679475" cy="1262050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="17" name="Shape 27"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="130968" y="345283"/>
+              <a:ext cx="1702595" cy="821530"/>
+              <a:chOff x="0" y="0"/>
+              <a:chExt cx="1149742" cy="514985"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="18" name="Shape 28"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId1"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="0"/>
+                <a:ext cx="546731" cy="506095"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="19" name="Shape 29"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId2"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="594556" y="0"/>
+                <a:ext cx="555186" cy="514985"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Shape 30"/>
+            <xdr:cNvPicPr preferRelativeResize="0">
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667498" y="142873"/>
+              <a:ext cx="1142958" cy="1190626"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Shape 31"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1940719" y="71438"/>
+              <a:ext cx="4524375" cy="1190624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr sz="1100" b="1">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>Republic of the Philippines</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>OFFICE OF THE PRESIDENT</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400" b="0">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>National Irrigation Administration</a:t>
+              </a:r>
+              <a:endParaRPr sz="1600">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
+              </a:r>
+              <a:endParaRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPct val="107000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11727815" cy="2398395"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image14.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="31194375"/>
+          <a:ext cx="11727815" cy="2398395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1276350" cy="695325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="32175450"/>
+          <a:ext cx="1276350" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6686550" cy="1304925"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Shape 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="48520350"/>
+          <a:ext cx="6686550" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-GB"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>National Hi-way,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 502-0145 (COA) • 559 0727 (Regional Manager)</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> • 576 5543 (Equipment) • 559-0724 (Finance) Telefax No.: (049) 559 0726</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Email:r4a@nia.gov.ph●Website: region4a.nia.gov.ph  Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>TIN: 000916415043</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="3A7D22"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buSzPts val="900"/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" i="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              <a:ea typeface="Arial" panose="020B0604020202020204"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+              <a:sym typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>NIA-RO-AFD-FIN-INT-Form-209-Rev00</a:t>
+          </a:r>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8648700" cy="1019175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Shape 2" title="Drawing"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="34347150"/>
+          <a:ext cx="8648700" cy="1019175"/>
+          <a:chOff x="1021650" y="3270413"/>
+          <a:chExt cx="8648700" cy="1019175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="Shape 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1021650" y="3270413"/>
+            <a:ext cx="8648700" cy="1019175"/>
+            <a:chOff x="130968" y="71438"/>
+            <a:chExt cx="7679488" cy="1262061"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="Shape 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="130968" y="71438"/>
+              <a:ext cx="7679475" cy="1262050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="28" name="Shape 27"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="130968" y="345283"/>
+              <a:ext cx="1702595" cy="821530"/>
+              <a:chOff x="0" y="0"/>
+              <a:chExt cx="1149742" cy="514985"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="29" name="Shape 28"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId1"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="0"/>
+                <a:ext cx="546731" cy="506095"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="30" name="Shape 29"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId2"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="594556" y="0"/>
+                <a:ext cx="555186" cy="514985"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Shape 30"/>
+            <xdr:cNvPicPr preferRelativeResize="0">
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667498" y="142873"/>
+              <a:ext cx="1142958" cy="1190626"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Shape 31"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1940719" y="71438"/>
+              <a:ext cx="4524375" cy="1190624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr sz="1100" b="1">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>Republic of the Philippines</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>OFFICE OF THE PRESIDENT</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400" b="0">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>National Irrigation Administration</a:t>
+              </a:r>
+              <a:endParaRPr sz="1600">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
+              </a:r>
+              <a:endParaRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPct val="107000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11727815" cy="2398395"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="image14.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="47415450"/>
+          <a:ext cx="11727815" cy="2398395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1276350" cy="695325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="48396525"/>
+          <a:ext cx="1276350" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,10 +6168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171:Q171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4191,7 +6742,7 @@
     <row r="28" ht="15.75" spans="1:17">
       <c r="A28" s="38"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="376" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="50"/>
@@ -4218,7 +6769,7 @@
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="194" t="s">
+      <c r="F29" s="377" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="52" t="e">
@@ -4243,14 +6794,14 @@
         <f>C29</f>
         <v>#REF!</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="376" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="46" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="194" t="s">
+      <c r="F30" s="377" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="52" t="e">
@@ -4334,10 +6885,10 @@
     <row r="34" ht="15.75" spans="1:17">
       <c r="A34" s="38"/>
       <c r="B34" s="49"/>
-      <c r="C34" s="195" t="s">
+      <c r="C34" s="378" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="193" t="s">
+      <c r="D34" s="376" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="54"/>
@@ -4357,10 +6908,10 @@
     <row r="35" ht="15.75" spans="1:17">
       <c r="A35" s="38"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="195" t="s">
+      <c r="C35" s="378" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="193" t="s">
+      <c r="D35" s="376" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="54"/>
@@ -4383,7 +6934,7 @@
       <c r="C36" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="193" t="s">
+      <c r="D36" s="376" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="39"/>
@@ -4649,7 +7200,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="110"/>
-      <c r="K48" s="196" t="s">
+      <c r="K48" s="379" t="s">
         <v>42</v>
       </c>
       <c r="L48" s="8"/>
@@ -4694,7 +7245,7 @@
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="197" t="s">
+      <c r="K50" s="380" t="s">
         <v>42</v>
       </c>
       <c r="L50" s="20"/>
@@ -5033,17 +7584,17 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="139"/>
-      <c r="J65" s="186" t="s">
+      <c r="J65" s="245" t="s">
         <v>65</v>
       </c>
-      <c r="K65" s="187" t="s">
+      <c r="K65" s="246" t="s">
         <v>66</v>
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
       <c r="N65" s="28"/>
       <c r="O65" s="139"/>
-      <c r="P65" s="188" t="s">
+      <c r="P65" s="247" t="s">
         <v>67</v>
       </c>
       <c r="Q65" s="94"/>
@@ -5059,7 +7610,7 @@
       <c r="H66" s="26"/>
       <c r="I66" s="151"/>
       <c r="J66" s="25"/>
-      <c r="K66" s="189"/>
+      <c r="K66" s="248"/>
       <c r="L66" s="26"/>
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
@@ -5079,10 +7630,10 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="139"/>
-      <c r="J67" s="186" t="s">
+      <c r="J67" s="245" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="187" t="s">
+      <c r="K67" s="246" t="s">
         <v>69</v>
       </c>
       <c r="L67" s="28"/>
@@ -5092,7 +7643,7 @@
       <c r="P67" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="192"/>
+      <c r="Q67" s="306"/>
     </row>
     <row r="68" ht="15.75" spans="1:17">
       <c r="A68" s="83"/>
@@ -5105,12 +7656,12 @@
       <c r="H68" s="26"/>
       <c r="I68" s="151"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="190"/>
+      <c r="K68" s="249"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
       <c r="O68" s="151"/>
-      <c r="P68" s="188" t="s">
+      <c r="P68" s="247" t="s">
         <v>67</v>
       </c>
       <c r="Q68" s="94"/>
@@ -5132,7 +7683,7 @@
       <c r="L69" s="177"/>
       <c r="M69" s="177"/>
       <c r="N69" s="177"/>
-      <c r="O69" s="191"/>
+      <c r="O69" s="250"/>
       <c r="P69" s="30"/>
       <c r="Q69" s="162"/>
     </row>
@@ -5402,8 +7953,3120 @@
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
     </row>
+    <row r="86" ht="15.75"/>
+    <row r="87" ht="15.75" spans="1:17">
+      <c r="A87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
+      <c r="G87" s="187"/>
+      <c r="H87" s="187"/>
+      <c r="I87" s="187"/>
+      <c r="J87" s="187"/>
+      <c r="K87" s="187"/>
+      <c r="L87" s="187"/>
+      <c r="M87" s="187"/>
+      <c r="N87" s="187"/>
+      <c r="O87" s="251"/>
+      <c r="P87" s="252" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q87" s="251"/>
+    </row>
+    <row r="88" ht="18" spans="1:17">
+      <c r="A88" s="188"/>
+      <c r="B88" s="189"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="189"/>
+      <c r="F88" s="189"/>
+      <c r="G88" s="189"/>
+      <c r="H88" s="189"/>
+      <c r="I88" s="189"/>
+      <c r="J88" s="189"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="189"/>
+      <c r="M88" s="189"/>
+      <c r="N88" s="189"/>
+      <c r="O88" s="253"/>
+      <c r="P88" s="254"/>
+      <c r="Q88" s="307"/>
+    </row>
+    <row r="89" ht="15.75" spans="1:17">
+      <c r="A89" s="190"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="191"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="193"/>
+      <c r="F89" s="193"/>
+      <c r="G89" s="193"/>
+      <c r="H89" s="193"/>
+      <c r="I89" s="193"/>
+      <c r="J89" s="193"/>
+      <c r="K89" s="193"/>
+      <c r="L89" s="193"/>
+      <c r="M89" s="193"/>
+      <c r="N89" s="193"/>
+      <c r="O89" s="255"/>
+      <c r="P89" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q89" s="255"/>
+    </row>
+    <row r="90" ht="18" spans="1:17">
+      <c r="A90" s="190"/>
+      <c r="B90" s="194"/>
+      <c r="C90" s="194"/>
+      <c r="D90" s="195"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="193"/>
+      <c r="K90" s="193"/>
+      <c r="L90" s="193"/>
+      <c r="M90" s="193"/>
+      <c r="N90" s="193"/>
+      <c r="O90" s="255"/>
+      <c r="P90" s="256"/>
+      <c r="Q90" s="308"/>
+    </row>
+    <row r="91" ht="15.75" spans="1:17">
+      <c r="A91" s="190"/>
+      <c r="B91" s="191"/>
+      <c r="C91" s="191"/>
+      <c r="D91" s="192"/>
+      <c r="E91" s="193"/>
+      <c r="F91" s="193"/>
+      <c r="G91" s="193"/>
+      <c r="H91" s="193"/>
+      <c r="I91" s="193"/>
+      <c r="J91" s="193"/>
+      <c r="K91" s="193"/>
+      <c r="L91" s="193"/>
+      <c r="M91" s="193"/>
+      <c r="N91" s="193"/>
+      <c r="O91" s="255"/>
+      <c r="P91" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="309"/>
+    </row>
+    <row r="92" ht="18.75" spans="1:17">
+      <c r="A92" s="190"/>
+      <c r="B92" s="191"/>
+      <c r="C92" s="191"/>
+      <c r="D92" s="192"/>
+      <c r="E92" s="192"/>
+      <c r="F92" s="192"/>
+      <c r="G92" s="192"/>
+      <c r="H92" s="192"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="192"/>
+      <c r="K92" s="192"/>
+      <c r="L92" s="192"/>
+      <c r="M92" s="192"/>
+      <c r="N92" s="192"/>
+      <c r="O92" s="258"/>
+      <c r="P92" s="259"/>
+      <c r="Q92" s="255"/>
+    </row>
+    <row r="93" ht="23.25" spans="1:17">
+      <c r="A93" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="197"/>
+      <c r="C93" s="197"/>
+      <c r="D93" s="197"/>
+      <c r="E93" s="197"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="197"/>
+      <c r="L93" s="197"/>
+      <c r="M93" s="197"/>
+      <c r="N93" s="197"/>
+      <c r="O93" s="197"/>
+      <c r="P93" s="260"/>
+      <c r="Q93" s="310"/>
+    </row>
+    <row r="94" ht="15.75" spans="1:17">
+      <c r="A94" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="187"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="187"/>
+      <c r="J94" s="187"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="187"/>
+      <c r="M94" s="187"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="187"/>
+      <c r="P94" s="187"/>
+      <c r="Q94" s="251"/>
+    </row>
+    <row r="95" ht="15.75" spans="1:17">
+      <c r="A95" s="200"/>
+      <c r="B95" s="193"/>
+      <c r="C95" s="201"/>
+      <c r="D95" s="202"/>
+      <c r="E95" s="203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="203"/>
+      <c r="G95" s="202"/>
+      <c r="H95" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="203"/>
+      <c r="J95" s="191"/>
+      <c r="K95" s="202"/>
+      <c r="L95" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="203"/>
+      <c r="N95" s="261" t="s">
+        <v>8</v>
+      </c>
+      <c r="O95" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="P95" s="203"/>
+      <c r="Q95" s="311"/>
+    </row>
+    <row r="96" ht="16.5" spans="1:17">
+      <c r="A96" s="204"/>
+      <c r="B96" s="205"/>
+      <c r="C96" s="206"/>
+      <c r="D96" s="207"/>
+      <c r="E96" s="207"/>
+      <c r="F96" s="208"/>
+      <c r="G96" s="208"/>
+      <c r="H96" s="207"/>
+      <c r="I96" s="205"/>
+      <c r="J96" s="207"/>
+      <c r="K96" s="207"/>
+      <c r="L96" s="205"/>
+      <c r="M96" s="207"/>
+      <c r="N96" s="207"/>
+      <c r="O96" s="208"/>
+      <c r="P96" s="207"/>
+      <c r="Q96" s="312"/>
+    </row>
+    <row r="97" ht="20.25" spans="1:17">
+      <c r="A97" s="198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="187"/>
+      <c r="C97" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="187"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="187"/>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187"/>
+      <c r="I97" s="187"/>
+      <c r="J97" s="187"/>
+      <c r="K97" s="209" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="187"/>
+      <c r="M97" s="187"/>
+      <c r="N97" s="187"/>
+      <c r="O97" s="187"/>
+      <c r="P97" s="262" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q97" s="251"/>
+    </row>
+    <row r="98" ht="20.25" spans="1:17">
+      <c r="A98" s="200"/>
+      <c r="B98" s="193"/>
+      <c r="C98" s="210"/>
+      <c r="D98" s="211"/>
+      <c r="E98" s="211"/>
+      <c r="F98" s="211"/>
+      <c r="G98" s="211"/>
+      <c r="H98" s="211"/>
+      <c r="I98" s="211"/>
+      <c r="J98" s="211"/>
+      <c r="K98" s="263"/>
+      <c r="L98" s="193"/>
+      <c r="M98" s="193"/>
+      <c r="N98" s="193"/>
+      <c r="O98" s="193"/>
+      <c r="P98" s="264"/>
+      <c r="Q98" s="313"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="213"/>
+      <c r="C99" s="214" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="213"/>
+      <c r="E99" s="213"/>
+      <c r="F99" s="213"/>
+      <c r="G99" s="213"/>
+      <c r="H99" s="213"/>
+      <c r="I99" s="213"/>
+      <c r="J99" s="213"/>
+      <c r="K99" s="213"/>
+      <c r="L99" s="213"/>
+      <c r="M99" s="213"/>
+      <c r="N99" s="213"/>
+      <c r="O99" s="213"/>
+      <c r="P99" s="213"/>
+      <c r="Q99" s="309"/>
+    </row>
+    <row r="100" ht="15.75" spans="1:17">
+      <c r="A100" s="204"/>
+      <c r="B100" s="205"/>
+      <c r="C100" s="215"/>
+      <c r="D100" s="205"/>
+      <c r="E100" s="205"/>
+      <c r="F100" s="205"/>
+      <c r="G100" s="205"/>
+      <c r="H100" s="205"/>
+      <c r="I100" s="205"/>
+      <c r="J100" s="205"/>
+      <c r="K100" s="205"/>
+      <c r="L100" s="205"/>
+      <c r="M100" s="205"/>
+      <c r="N100" s="205"/>
+      <c r="O100" s="205"/>
+      <c r="P100" s="205"/>
+      <c r="Q100" s="314"/>
+    </row>
+    <row r="101" ht="18" spans="1:17">
+      <c r="A101" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="217"/>
+      <c r="C101" s="217"/>
+      <c r="D101" s="217"/>
+      <c r="E101" s="217"/>
+      <c r="F101" s="217"/>
+      <c r="G101" s="217"/>
+      <c r="H101" s="217"/>
+      <c r="I101" s="217"/>
+      <c r="J101" s="217"/>
+      <c r="K101" s="265"/>
+      <c r="L101" s="266"/>
+      <c r="M101" s="265" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="217"/>
+      <c r="O101" s="266"/>
+      <c r="P101" s="265" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="315"/>
+    </row>
+    <row r="102" ht="15.75" spans="1:17">
+      <c r="A102" s="218"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="219"/>
+      <c r="E102" s="219"/>
+      <c r="F102" s="219"/>
+      <c r="G102" s="219"/>
+      <c r="H102" s="219"/>
+      <c r="I102" s="219"/>
+      <c r="J102" s="267"/>
+      <c r="K102" s="268"/>
+      <c r="L102" s="269"/>
+      <c r="M102" s="268"/>
+      <c r="N102" s="270"/>
+      <c r="O102" s="271"/>
+      <c r="P102" s="272"/>
+      <c r="Q102" s="316"/>
+    </row>
+    <row r="103" ht="20.25" spans="1:17">
+      <c r="A103" s="220"/>
+      <c r="B103" s="221"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="221"/>
+      <c r="E103" s="221"/>
+      <c r="F103" s="221"/>
+      <c r="G103" s="221"/>
+      <c r="H103" s="221"/>
+      <c r="I103" s="221"/>
+      <c r="J103" s="273"/>
+      <c r="K103" s="274" t="s">
+        <v>75</v>
+      </c>
+      <c r="L103" s="275"/>
+      <c r="M103" s="201"/>
+      <c r="N103" s="191"/>
+      <c r="O103" s="276" t="s">
+        <v>18</v>
+      </c>
+      <c r="P103" s="277"/>
+      <c r="Q103" s="317"/>
+    </row>
+    <row r="104" ht="15.75" spans="1:17">
+      <c r="A104" s="220"/>
+      <c r="B104" s="221"/>
+      <c r="C104" s="221"/>
+      <c r="D104" s="221"/>
+      <c r="E104" s="221"/>
+      <c r="F104" s="221"/>
+      <c r="G104" s="221"/>
+      <c r="H104" s="221"/>
+      <c r="I104" s="221"/>
+      <c r="J104" s="273"/>
+      <c r="K104" s="278"/>
+      <c r="L104" s="279"/>
+      <c r="M104" s="201"/>
+      <c r="N104" s="191"/>
+      <c r="O104" s="280"/>
+      <c r="P104" s="201"/>
+      <c r="Q104" s="318"/>
+    </row>
+    <row r="105" ht="15.75" spans="1:17">
+      <c r="A105" s="220"/>
+      <c r="B105" s="221"/>
+      <c r="C105" s="221"/>
+      <c r="D105" s="221"/>
+      <c r="E105" s="221"/>
+      <c r="F105" s="221"/>
+      <c r="G105" s="221"/>
+      <c r="H105" s="221"/>
+      <c r="I105" s="221"/>
+      <c r="J105" s="273"/>
+      <c r="K105" s="278"/>
+      <c r="L105" s="279"/>
+      <c r="M105" s="201"/>
+      <c r="N105" s="191"/>
+      <c r="O105" s="280"/>
+      <c r="P105" s="281"/>
+      <c r="Q105" s="318"/>
+    </row>
+    <row r="106" ht="15.75" spans="1:17">
+      <c r="A106" s="220"/>
+      <c r="B106" s="221"/>
+      <c r="C106" s="221"/>
+      <c r="D106" s="221"/>
+      <c r="E106" s="221"/>
+      <c r="F106" s="221"/>
+      <c r="G106" s="221"/>
+      <c r="H106" s="221"/>
+      <c r="I106" s="221"/>
+      <c r="J106" s="273"/>
+      <c r="K106" s="278"/>
+      <c r="L106" s="279"/>
+      <c r="M106" s="201"/>
+      <c r="N106" s="191"/>
+      <c r="O106" s="280"/>
+      <c r="P106" s="281"/>
+      <c r="Q106" s="318"/>
+    </row>
+    <row r="107" ht="15.75" spans="1:17">
+      <c r="A107" s="220"/>
+      <c r="B107" s="221"/>
+      <c r="C107" s="221"/>
+      <c r="D107" s="221"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
+      <c r="G107" s="221"/>
+      <c r="H107" s="221"/>
+      <c r="I107" s="221"/>
+      <c r="J107" s="273"/>
+      <c r="K107" s="278"/>
+      <c r="L107" s="279"/>
+      <c r="M107" s="201"/>
+      <c r="N107" s="191"/>
+      <c r="O107" s="280"/>
+      <c r="P107" s="281"/>
+      <c r="Q107" s="318"/>
+    </row>
+    <row r="108" ht="15.75" spans="1:17">
+      <c r="A108" s="220"/>
+      <c r="B108" s="221"/>
+      <c r="C108" s="221"/>
+      <c r="D108" s="221"/>
+      <c r="E108" s="221"/>
+      <c r="F108" s="221"/>
+      <c r="G108" s="221"/>
+      <c r="H108" s="221"/>
+      <c r="I108" s="221"/>
+      <c r="J108" s="273"/>
+      <c r="K108" s="201"/>
+      <c r="L108" s="280"/>
+      <c r="M108" s="201"/>
+      <c r="N108" s="191"/>
+      <c r="O108" s="280"/>
+      <c r="P108" s="201"/>
+      <c r="Q108" s="318"/>
+    </row>
+    <row r="109" ht="15.75" spans="1:17">
+      <c r="A109" s="222"/>
+      <c r="B109" s="223"/>
+      <c r="C109" s="224"/>
+      <c r="D109" s="193"/>
+      <c r="E109" s="224"/>
+      <c r="F109" s="224"/>
+      <c r="G109" s="225"/>
+      <c r="H109" s="193"/>
+      <c r="I109" s="193"/>
+      <c r="J109" s="282"/>
+      <c r="K109" s="203"/>
+      <c r="L109" s="279"/>
+      <c r="M109" s="278"/>
+      <c r="N109" s="203"/>
+      <c r="O109" s="279"/>
+      <c r="P109" s="283"/>
+      <c r="Q109" s="318"/>
+    </row>
+    <row r="110" ht="15.75" spans="1:17">
+      <c r="A110" s="222"/>
+      <c r="B110" s="223"/>
+      <c r="C110" s="224"/>
+      <c r="D110" s="193"/>
+      <c r="E110" s="224"/>
+      <c r="F110" s="224"/>
+      <c r="G110" s="225"/>
+      <c r="H110" s="193"/>
+      <c r="I110" s="193"/>
+      <c r="J110" s="282"/>
+      <c r="K110" s="203"/>
+      <c r="L110" s="279"/>
+      <c r="M110" s="278"/>
+      <c r="N110" s="203"/>
+      <c r="O110" s="279"/>
+      <c r="P110" s="283"/>
+      <c r="Q110" s="318"/>
+    </row>
+    <row r="111" ht="15.75" spans="1:17">
+      <c r="A111" s="222"/>
+      <c r="B111" s="223"/>
+      <c r="C111" s="224"/>
+      <c r="D111" s="193"/>
+      <c r="E111" s="224"/>
+      <c r="F111" s="224"/>
+      <c r="G111" s="225"/>
+      <c r="H111" s="193"/>
+      <c r="I111" s="193"/>
+      <c r="J111" s="282"/>
+      <c r="K111" s="203"/>
+      <c r="L111" s="279"/>
+      <c r="M111" s="278"/>
+      <c r="N111" s="203"/>
+      <c r="O111" s="279"/>
+      <c r="P111" s="283"/>
+      <c r="Q111" s="318"/>
+    </row>
+    <row r="112" ht="15.75" spans="1:17">
+      <c r="A112" s="222"/>
+      <c r="B112" s="223"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="193"/>
+      <c r="E112" s="224"/>
+      <c r="F112" s="224"/>
+      <c r="G112" s="225"/>
+      <c r="H112" s="193"/>
+      <c r="I112" s="193"/>
+      <c r="J112" s="282"/>
+      <c r="K112" s="203"/>
+      <c r="L112" s="279"/>
+      <c r="M112" s="278"/>
+      <c r="N112" s="203"/>
+      <c r="O112" s="279"/>
+      <c r="P112" s="283"/>
+      <c r="Q112" s="318"/>
+    </row>
+    <row r="113" ht="15.75" spans="1:17">
+      <c r="A113" s="222"/>
+      <c r="B113" s="223"/>
+      <c r="C113" s="224"/>
+      <c r="D113" s="193"/>
+      <c r="E113" s="226"/>
+      <c r="F113" s="224"/>
+      <c r="G113" s="225"/>
+      <c r="H113" s="193"/>
+      <c r="I113" s="193"/>
+      <c r="J113" s="282"/>
+      <c r="K113" s="203"/>
+      <c r="L113" s="279"/>
+      <c r="M113" s="278"/>
+      <c r="N113" s="203"/>
+      <c r="O113" s="279"/>
+      <c r="P113" s="283"/>
+      <c r="Q113" s="318"/>
+    </row>
+    <row r="114" ht="18" spans="1:17">
+      <c r="A114" s="222"/>
+      <c r="B114" s="203"/>
+      <c r="C114" s="227"/>
+      <c r="D114" s="228"/>
+      <c r="E114" s="228"/>
+      <c r="F114" s="228"/>
+      <c r="G114" s="228"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="228"/>
+      <c r="J114" s="284"/>
+      <c r="K114" s="285"/>
+      <c r="L114" s="286"/>
+      <c r="M114" s="287"/>
+      <c r="N114" s="285"/>
+      <c r="O114" s="286"/>
+      <c r="P114" s="288"/>
+      <c r="Q114" s="319"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:17">
+      <c r="A115" s="222"/>
+      <c r="B115" s="203"/>
+      <c r="C115" s="203"/>
+      <c r="D115" s="203"/>
+      <c r="E115" s="203"/>
+      <c r="F115" s="229"/>
+      <c r="G115" s="230"/>
+      <c r="H115" s="230"/>
+      <c r="I115" s="230"/>
+      <c r="J115" s="230"/>
+      <c r="K115" s="287"/>
+      <c r="L115" s="286"/>
+      <c r="M115" s="287"/>
+      <c r="N115" s="285"/>
+      <c r="O115" s="286"/>
+      <c r="P115" s="288"/>
+      <c r="Q115" s="320"/>
+    </row>
+    <row r="116" ht="18.75" spans="1:17">
+      <c r="A116" s="231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="205"/>
+      <c r="C116" s="205"/>
+      <c r="D116" s="205"/>
+      <c r="E116" s="205"/>
+      <c r="F116" s="205"/>
+      <c r="G116" s="205"/>
+      <c r="H116" s="205"/>
+      <c r="I116" s="205"/>
+      <c r="J116" s="205"/>
+      <c r="K116" s="289"/>
+      <c r="L116" s="290"/>
+      <c r="M116" s="289"/>
+      <c r="N116" s="208"/>
+      <c r="O116" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="P116" s="292"/>
+      <c r="Q116" s="321">
+        <f>Q103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" spans="1:17">
+      <c r="A117" s="232" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="233" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="193"/>
+      <c r="D117" s="193"/>
+      <c r="E117" s="193"/>
+      <c r="F117" s="193"/>
+      <c r="G117" s="193"/>
+      <c r="H117" s="193"/>
+      <c r="I117" s="193"/>
+      <c r="J117" s="193"/>
+      <c r="K117" s="193"/>
+      <c r="L117" s="193"/>
+      <c r="M117" s="193"/>
+      <c r="N117" s="193"/>
+      <c r="O117" s="193"/>
+      <c r="P117" s="193"/>
+      <c r="Q117" s="255"/>
+    </row>
+    <row r="118" ht="15.75" spans="1:17">
+      <c r="A118" s="234"/>
+      <c r="B118" s="192"/>
+      <c r="C118" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="191"/>
+      <c r="E118" s="191"/>
+      <c r="F118" s="191"/>
+      <c r="G118" s="191"/>
+      <c r="H118" s="191"/>
+      <c r="I118" s="191"/>
+      <c r="J118" s="191"/>
+      <c r="K118" s="192"/>
+      <c r="L118" s="223"/>
+      <c r="M118" s="223"/>
+      <c r="N118" s="203"/>
+      <c r="O118" s="223"/>
+      <c r="P118" s="293"/>
+      <c r="Q118" s="253"/>
+    </row>
+    <row r="119" ht="15.75" spans="1:17">
+      <c r="A119" s="234"/>
+      <c r="B119" s="192"/>
+      <c r="C119" s="191"/>
+      <c r="D119" s="191"/>
+      <c r="E119" s="191"/>
+      <c r="F119" s="191"/>
+      <c r="G119" s="191"/>
+      <c r="H119" s="191"/>
+      <c r="I119" s="191"/>
+      <c r="J119" s="191"/>
+      <c r="K119" s="192"/>
+      <c r="L119" s="223"/>
+      <c r="M119" s="223"/>
+      <c r="N119" s="203"/>
+      <c r="O119" s="223"/>
+      <c r="P119" s="293"/>
+      <c r="Q119" s="253"/>
+    </row>
+    <row r="120" ht="15.75" spans="1:17">
+      <c r="A120" s="234"/>
+      <c r="B120" s="192"/>
+      <c r="C120" s="191"/>
+      <c r="D120" s="191"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="191"/>
+      <c r="G120" s="191"/>
+      <c r="H120" s="191"/>
+      <c r="I120" s="191"/>
+      <c r="J120" s="191"/>
+      <c r="K120" s="192"/>
+      <c r="L120" s="223"/>
+      <c r="M120" s="223"/>
+      <c r="N120" s="203"/>
+      <c r="O120" s="223"/>
+      <c r="P120" s="293"/>
+      <c r="Q120" s="253"/>
+    </row>
+    <row r="121" ht="15.75" spans="1:17">
+      <c r="A121" s="234"/>
+      <c r="B121" s="192"/>
+      <c r="C121" s="191"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="191"/>
+      <c r="F121" s="191"/>
+      <c r="G121" s="191"/>
+      <c r="H121" s="191"/>
+      <c r="I121" s="191"/>
+      <c r="J121" s="191"/>
+      <c r="K121" s="192"/>
+      <c r="L121" s="223"/>
+      <c r="M121" s="223"/>
+      <c r="N121" s="203"/>
+      <c r="O121" s="223"/>
+      <c r="P121" s="293"/>
+      <c r="Q121" s="253"/>
+    </row>
+    <row r="122" ht="20.25" spans="1:17">
+      <c r="A122" s="235"/>
+      <c r="B122" s="193"/>
+      <c r="C122" s="193"/>
+      <c r="D122" s="193"/>
+      <c r="E122" s="193"/>
+      <c r="F122" s="193"/>
+      <c r="G122" s="193"/>
+      <c r="H122" s="193"/>
+      <c r="I122" s="193"/>
+      <c r="J122" s="193"/>
+      <c r="K122" s="193"/>
+      <c r="L122" s="193"/>
+      <c r="M122" s="193"/>
+      <c r="N122" s="193"/>
+      <c r="O122" s="193"/>
+      <c r="P122" s="193"/>
+      <c r="Q122" s="255"/>
+    </row>
+    <row r="123" ht="21" spans="1:17">
+      <c r="A123" s="236" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="193"/>
+      <c r="C123" s="193"/>
+      <c r="D123" s="193"/>
+      <c r="E123" s="193"/>
+      <c r="F123" s="193"/>
+      <c r="G123" s="193"/>
+      <c r="H123" s="193"/>
+      <c r="I123" s="193"/>
+      <c r="J123" s="193"/>
+      <c r="K123" s="193"/>
+      <c r="L123" s="193"/>
+      <c r="M123" s="193"/>
+      <c r="N123" s="193"/>
+      <c r="O123" s="193"/>
+      <c r="P123" s="193"/>
+      <c r="Q123" s="255"/>
+    </row>
+    <row r="124" ht="15.75" spans="1:17">
+      <c r="A124" s="237" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="239"/>
+      <c r="D124" s="239"/>
+      <c r="E124" s="239"/>
+      <c r="F124" s="239"/>
+      <c r="G124" s="239"/>
+      <c r="H124" s="239"/>
+      <c r="I124" s="239"/>
+      <c r="J124" s="239"/>
+      <c r="K124" s="239"/>
+      <c r="L124" s="239"/>
+      <c r="M124" s="239"/>
+      <c r="N124" s="239"/>
+      <c r="O124" s="239"/>
+      <c r="P124" s="239"/>
+      <c r="Q124" s="322"/>
+    </row>
+    <row r="125" ht="15.75" spans="1:17">
+      <c r="A125" s="240" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" s="241"/>
+      <c r="C125" s="241"/>
+      <c r="D125" s="241"/>
+      <c r="E125" s="241"/>
+      <c r="F125" s="241"/>
+      <c r="G125" s="241"/>
+      <c r="H125" s="241"/>
+      <c r="I125" s="241"/>
+      <c r="J125" s="241"/>
+      <c r="K125" s="294" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="241"/>
+      <c r="M125" s="295"/>
+      <c r="N125" s="296"/>
+      <c r="O125" s="297"/>
+      <c r="P125" s="298" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q125" s="323" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="1:17">
+      <c r="A126" s="242"/>
+      <c r="B126" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="227"/>
+      <c r="D126" s="227"/>
+      <c r="E126" s="227"/>
+      <c r="F126" s="227"/>
+      <c r="G126" s="227"/>
+      <c r="H126" s="227"/>
+      <c r="I126" s="227"/>
+      <c r="J126" s="227"/>
+      <c r="K126" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="L126" s="300"/>
+      <c r="M126" s="301"/>
+      <c r="N126" s="300"/>
+      <c r="O126" s="300"/>
+      <c r="P126" s="301"/>
+      <c r="Q126" s="324"/>
+    </row>
+    <row r="127" ht="18" spans="1:17">
+      <c r="A127" s="242"/>
+      <c r="B127" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="227"/>
+      <c r="D127" s="227"/>
+      <c r="E127" s="227"/>
+      <c r="F127" s="227"/>
+      <c r="G127" s="227"/>
+      <c r="H127" s="227"/>
+      <c r="I127" s="227"/>
+      <c r="J127" s="227"/>
+      <c r="K127" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="L127" s="300"/>
+      <c r="M127" s="301"/>
+      <c r="N127" s="300"/>
+      <c r="O127" s="300"/>
+      <c r="P127" s="301"/>
+      <c r="Q127" s="324"/>
+    </row>
+    <row r="128" ht="18.75" spans="1:17">
+      <c r="A128" s="243"/>
+      <c r="B128" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="205"/>
+      <c r="D128" s="205"/>
+      <c r="E128" s="205"/>
+      <c r="F128" s="205"/>
+      <c r="G128" s="205"/>
+      <c r="H128" s="205"/>
+      <c r="I128" s="205"/>
+      <c r="J128" s="205"/>
+      <c r="K128" s="381" t="s">
+        <v>42</v>
+      </c>
+      <c r="L128" s="205"/>
+      <c r="M128" s="303"/>
+      <c r="N128" s="304"/>
+      <c r="O128" s="304"/>
+      <c r="P128" s="305"/>
+      <c r="Q128" s="325"/>
+    </row>
+    <row r="129" ht="16.5" spans="1:17">
+      <c r="A129" s="326" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="205"/>
+      <c r="D129" s="205"/>
+      <c r="E129" s="205"/>
+      <c r="F129" s="205"/>
+      <c r="G129" s="205"/>
+      <c r="H129" s="205"/>
+      <c r="I129" s="205"/>
+      <c r="J129" s="205"/>
+      <c r="K129" s="356" t="s">
+        <v>46</v>
+      </c>
+      <c r="L129" s="208" t="s">
+        <v>47</v>
+      </c>
+      <c r="M129" s="205"/>
+      <c r="N129" s="205"/>
+      <c r="O129" s="205"/>
+      <c r="P129" s="205"/>
+      <c r="Q129" s="314"/>
+    </row>
+    <row r="130" ht="18" spans="1:17">
+      <c r="A130" s="328"/>
+      <c r="B130" s="329"/>
+      <c r="C130" s="330" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="330"/>
+      <c r="E130" s="330"/>
+      <c r="F130" s="330"/>
+      <c r="G130" s="330"/>
+      <c r="H130" s="330"/>
+      <c r="I130" s="330"/>
+      <c r="J130" s="330"/>
+      <c r="K130" s="357"/>
+      <c r="L130" s="187"/>
+      <c r="M130" s="187"/>
+      <c r="N130" s="187"/>
+      <c r="O130" s="187"/>
+      <c r="P130" s="187"/>
+      <c r="Q130" s="251"/>
+    </row>
+    <row r="131" ht="18" spans="1:17">
+      <c r="A131" s="222"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="331" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="331"/>
+      <c r="E131" s="331"/>
+      <c r="F131" s="331"/>
+      <c r="G131" s="331"/>
+      <c r="H131" s="331"/>
+      <c r="I131" s="331"/>
+      <c r="J131" s="331"/>
+      <c r="K131" s="200"/>
+      <c r="L131" s="193"/>
+      <c r="M131" s="193"/>
+      <c r="N131" s="193"/>
+      <c r="O131" s="193"/>
+      <c r="P131" s="193"/>
+      <c r="Q131" s="255"/>
+    </row>
+    <row r="132" ht="18" spans="1:17">
+      <c r="A132" s="234"/>
+      <c r="B132" s="202"/>
+      <c r="C132" s="331" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="331"/>
+      <c r="E132" s="331"/>
+      <c r="F132" s="331"/>
+      <c r="G132" s="331"/>
+      <c r="H132" s="331"/>
+      <c r="I132" s="331"/>
+      <c r="J132" s="331"/>
+      <c r="K132" s="200"/>
+      <c r="L132" s="193"/>
+      <c r="M132" s="193"/>
+      <c r="N132" s="193"/>
+      <c r="O132" s="193"/>
+      <c r="P132" s="193"/>
+      <c r="Q132" s="255"/>
+    </row>
+    <row r="133" ht="18.75" spans="1:17">
+      <c r="A133" s="332"/>
+      <c r="B133" s="208"/>
+      <c r="C133" s="333" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="333"/>
+      <c r="E133" s="333"/>
+      <c r="F133" s="333"/>
+      <c r="G133" s="333"/>
+      <c r="H133" s="333"/>
+      <c r="I133" s="333"/>
+      <c r="J133" s="333"/>
+      <c r="K133" s="204"/>
+      <c r="L133" s="205"/>
+      <c r="M133" s="205"/>
+      <c r="N133" s="205"/>
+      <c r="O133" s="205"/>
+      <c r="P133" s="205"/>
+      <c r="Q133" s="314"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="187"/>
+      <c r="C134" s="335"/>
+      <c r="D134" s="187"/>
+      <c r="E134" s="187"/>
+      <c r="F134" s="187"/>
+      <c r="G134" s="187"/>
+      <c r="H134" s="187"/>
+      <c r="I134" s="187"/>
+      <c r="J134" s="187"/>
+      <c r="K134" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="L134" s="358"/>
+      <c r="M134" s="359"/>
+      <c r="N134" s="187"/>
+      <c r="O134" s="187"/>
+      <c r="P134" s="187"/>
+      <c r="Q134" s="251"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="336"/>
+      <c r="B135" s="211"/>
+      <c r="C135" s="210"/>
+      <c r="D135" s="211"/>
+      <c r="E135" s="211"/>
+      <c r="F135" s="211"/>
+      <c r="G135" s="211"/>
+      <c r="H135" s="211"/>
+      <c r="I135" s="211"/>
+      <c r="J135" s="211"/>
+      <c r="K135" s="336"/>
+      <c r="L135" s="360"/>
+      <c r="M135" s="211"/>
+      <c r="N135" s="211"/>
+      <c r="O135" s="211"/>
+      <c r="P135" s="211"/>
+      <c r="Q135" s="308"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="337" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="213"/>
+      <c r="C136" s="338"/>
+      <c r="D136" s="213"/>
+      <c r="E136" s="213"/>
+      <c r="F136" s="213"/>
+      <c r="G136" s="213"/>
+      <c r="H136" s="213"/>
+      <c r="I136" s="213"/>
+      <c r="J136" s="213"/>
+      <c r="K136" s="361" t="s">
+        <v>54</v>
+      </c>
+      <c r="L136" s="362"/>
+      <c r="M136" s="363"/>
+      <c r="N136" s="213"/>
+      <c r="O136" s="213"/>
+      <c r="P136" s="213"/>
+      <c r="Q136" s="309"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="336"/>
+      <c r="B137" s="211"/>
+      <c r="C137" s="210"/>
+      <c r="D137" s="211"/>
+      <c r="E137" s="211"/>
+      <c r="F137" s="211"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="211"/>
+      <c r="I137" s="211"/>
+      <c r="J137" s="211"/>
+      <c r="K137" s="336"/>
+      <c r="L137" s="360"/>
+      <c r="M137" s="211"/>
+      <c r="N137" s="211"/>
+      <c r="O137" s="211"/>
+      <c r="P137" s="211"/>
+      <c r="Q137" s="308"/>
+    </row>
+    <row r="138" ht="20.25" spans="1:17">
+      <c r="A138" s="337" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" s="213"/>
+      <c r="C138" s="339" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="213"/>
+      <c r="E138" s="213"/>
+      <c r="F138" s="213"/>
+      <c r="G138" s="213"/>
+      <c r="H138" s="213"/>
+      <c r="I138" s="213"/>
+      <c r="J138" s="309"/>
+      <c r="K138" s="361" t="s">
+        <v>55</v>
+      </c>
+      <c r="L138" s="362"/>
+      <c r="M138" s="339" t="s">
+        <v>57</v>
+      </c>
+      <c r="N138" s="213"/>
+      <c r="O138" s="213"/>
+      <c r="P138" s="213"/>
+      <c r="Q138" s="309"/>
+    </row>
+    <row r="139" ht="20.25" spans="1:17">
+      <c r="A139" s="200"/>
+      <c r="B139" s="193"/>
+      <c r="C139" s="340" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="211"/>
+      <c r="E139" s="211"/>
+      <c r="F139" s="211"/>
+      <c r="G139" s="211"/>
+      <c r="H139" s="211"/>
+      <c r="I139" s="211"/>
+      <c r="J139" s="211"/>
+      <c r="K139" s="200"/>
+      <c r="L139" s="364"/>
+      <c r="M139" s="365" t="s">
+        <v>59</v>
+      </c>
+      <c r="N139" s="211"/>
+      <c r="O139" s="211"/>
+      <c r="P139" s="211"/>
+      <c r="Q139" s="308"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" s="213"/>
+      <c r="C140" s="342"/>
+      <c r="D140" s="213"/>
+      <c r="E140" s="213"/>
+      <c r="F140" s="213"/>
+      <c r="G140" s="213"/>
+      <c r="H140" s="213"/>
+      <c r="I140" s="213"/>
+      <c r="J140" s="213"/>
+      <c r="K140" s="341" t="s">
+        <v>60</v>
+      </c>
+      <c r="L140" s="362"/>
+      <c r="M140" s="366"/>
+      <c r="N140" s="213"/>
+      <c r="O140" s="213"/>
+      <c r="P140" s="213"/>
+      <c r="Q140" s="309"/>
+    </row>
+    <row r="141" ht="15.75" spans="1:17">
+      <c r="A141" s="204"/>
+      <c r="B141" s="205"/>
+      <c r="C141" s="215"/>
+      <c r="D141" s="205"/>
+      <c r="E141" s="205"/>
+      <c r="F141" s="205"/>
+      <c r="G141" s="205"/>
+      <c r="H141" s="205"/>
+      <c r="I141" s="205"/>
+      <c r="J141" s="205"/>
+      <c r="K141" s="204"/>
+      <c r="L141" s="303"/>
+      <c r="M141" s="205"/>
+      <c r="N141" s="205"/>
+      <c r="O141" s="205"/>
+      <c r="P141" s="205"/>
+      <c r="Q141" s="314"/>
+    </row>
+    <row r="142" ht="15.75" spans="1:17">
+      <c r="A142" s="237" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" s="343" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="217"/>
+      <c r="D142" s="217"/>
+      <c r="E142" s="217"/>
+      <c r="F142" s="217"/>
+      <c r="G142" s="217"/>
+      <c r="H142" s="217"/>
+      <c r="I142" s="217"/>
+      <c r="J142" s="217"/>
+      <c r="K142" s="217"/>
+      <c r="L142" s="217"/>
+      <c r="M142" s="217"/>
+      <c r="N142" s="217"/>
+      <c r="O142" s="266"/>
+      <c r="P142" s="367" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q142" s="374"/>
+    </row>
+    <row r="143" ht="15.75" spans="1:17">
+      <c r="A143" s="344" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" s="213"/>
+      <c r="C143" s="272" t="s">
+        <v>78</v>
+      </c>
+      <c r="D143" s="213"/>
+      <c r="E143" s="213"/>
+      <c r="F143" s="213"/>
+      <c r="G143" s="213"/>
+      <c r="H143" s="213"/>
+      <c r="I143" s="362"/>
+      <c r="J143" s="368" t="s">
+        <v>65</v>
+      </c>
+      <c r="K143" s="369" t="s">
+        <v>66</v>
+      </c>
+      <c r="L143" s="213"/>
+      <c r="M143" s="213"/>
+      <c r="N143" s="213"/>
+      <c r="O143" s="362"/>
+      <c r="P143" s="370" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q143" s="255"/>
+    </row>
+    <row r="144" ht="18" spans="1:17">
+      <c r="A144" s="336"/>
+      <c r="B144" s="211"/>
+      <c r="C144" s="210"/>
+      <c r="D144" s="211"/>
+      <c r="E144" s="211"/>
+      <c r="F144" s="211"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="211"/>
+      <c r="I144" s="360"/>
+      <c r="J144" s="210"/>
+      <c r="K144" s="371"/>
+      <c r="L144" s="211"/>
+      <c r="M144" s="211"/>
+      <c r="N144" s="211"/>
+      <c r="O144" s="360"/>
+      <c r="P144" s="210"/>
+      <c r="Q144" s="308"/>
+    </row>
+    <row r="145" ht="15.75" spans="1:17">
+      <c r="A145" s="344" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" s="213"/>
+      <c r="C145" s="272"/>
+      <c r="D145" s="213"/>
+      <c r="E145" s="213"/>
+      <c r="F145" s="213"/>
+      <c r="G145" s="213"/>
+      <c r="H145" s="213"/>
+      <c r="I145" s="362"/>
+      <c r="J145" s="368" t="s">
+        <v>65</v>
+      </c>
+      <c r="K145" s="369" t="s">
+        <v>69</v>
+      </c>
+      <c r="L145" s="213"/>
+      <c r="M145" s="213"/>
+      <c r="N145" s="213"/>
+      <c r="O145" s="362"/>
+      <c r="P145" s="270" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q145" s="375"/>
+    </row>
+    <row r="146" ht="15.75" spans="1:17">
+      <c r="A146" s="336"/>
+      <c r="B146" s="211"/>
+      <c r="C146" s="210"/>
+      <c r="D146" s="211"/>
+      <c r="E146" s="211"/>
+      <c r="F146" s="211"/>
+      <c r="G146" s="211"/>
+      <c r="H146" s="211"/>
+      <c r="I146" s="360"/>
+      <c r="J146" s="210"/>
+      <c r="K146" s="372"/>
+      <c r="L146" s="211"/>
+      <c r="M146" s="211"/>
+      <c r="N146" s="211"/>
+      <c r="O146" s="360"/>
+      <c r="P146" s="370" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q146" s="255"/>
+    </row>
+    <row r="147" ht="16.5" spans="1:17">
+      <c r="A147" s="345" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="346"/>
+      <c r="C147" s="346"/>
+      <c r="D147" s="346"/>
+      <c r="E147" s="346"/>
+      <c r="F147" s="346"/>
+      <c r="G147" s="346"/>
+      <c r="H147" s="346"/>
+      <c r="I147" s="346"/>
+      <c r="J147" s="346"/>
+      <c r="K147" s="346"/>
+      <c r="L147" s="346"/>
+      <c r="M147" s="346"/>
+      <c r="N147" s="346"/>
+      <c r="O147" s="373"/>
+      <c r="P147" s="215"/>
+      <c r="Q147" s="314"/>
+    </row>
+    <row r="148" ht="15.75" spans="1:17">
+      <c r="A148" s="347"/>
+      <c r="B148" s="191"/>
+      <c r="C148" s="191"/>
+      <c r="D148" s="191"/>
+      <c r="E148" s="191"/>
+      <c r="F148" s="191"/>
+      <c r="G148" s="191"/>
+      <c r="H148" s="191"/>
+      <c r="I148" s="191"/>
+      <c r="J148" s="191"/>
+      <c r="K148" s="191"/>
+      <c r="L148" s="191"/>
+      <c r="M148" s="191"/>
+      <c r="N148" s="191"/>
+      <c r="O148" s="191"/>
+      <c r="P148" s="192"/>
+      <c r="Q148" s="192"/>
+    </row>
+    <row r="149" ht="15.75" spans="1:17">
+      <c r="A149" s="347"/>
+      <c r="B149" s="191"/>
+      <c r="C149" s="191"/>
+      <c r="D149" s="191"/>
+      <c r="E149" s="191"/>
+      <c r="F149" s="191"/>
+      <c r="G149" s="191"/>
+      <c r="H149" s="191"/>
+      <c r="I149" s="191"/>
+      <c r="J149" s="191"/>
+      <c r="K149" s="191"/>
+      <c r="L149" s="191"/>
+      <c r="M149" s="191"/>
+      <c r="N149" s="191"/>
+      <c r="O149" s="191"/>
+      <c r="P149" s="192"/>
+      <c r="Q149" s="192"/>
+    </row>
+    <row r="150" ht="15.75" spans="1:17">
+      <c r="A150" s="347"/>
+      <c r="B150" s="191"/>
+      <c r="C150" s="191"/>
+      <c r="D150" s="191"/>
+      <c r="E150" s="191"/>
+      <c r="F150" s="191"/>
+      <c r="G150" s="191"/>
+      <c r="H150" s="191"/>
+      <c r="I150" s="191"/>
+      <c r="J150" s="191"/>
+      <c r="K150" s="191"/>
+      <c r="L150" s="191"/>
+      <c r="M150" s="191"/>
+      <c r="N150" s="191"/>
+      <c r="O150" s="191"/>
+      <c r="P150" s="192"/>
+      <c r="Q150" s="192"/>
+    </row>
+    <row r="151" ht="15.75" spans="1:17">
+      <c r="A151" s="347"/>
+      <c r="B151" s="191"/>
+      <c r="C151" s="191"/>
+      <c r="D151" s="191"/>
+      <c r="E151" s="191"/>
+      <c r="F151" s="191"/>
+      <c r="G151" s="191"/>
+      <c r="H151" s="191"/>
+      <c r="I151" s="191"/>
+      <c r="J151" s="191"/>
+      <c r="K151" s="191"/>
+      <c r="L151" s="191"/>
+      <c r="M151" s="191"/>
+      <c r="N151" s="191"/>
+      <c r="O151" s="191"/>
+      <c r="P151" s="192"/>
+      <c r="Q151" s="192"/>
+    </row>
+    <row r="152" ht="15.75" spans="1:17">
+      <c r="A152" s="348"/>
+      <c r="B152" s="203"/>
+      <c r="C152" s="203"/>
+      <c r="D152" s="203"/>
+      <c r="E152" s="203"/>
+      <c r="F152" s="203"/>
+      <c r="G152" s="203"/>
+      <c r="H152" s="203"/>
+      <c r="I152" s="203"/>
+      <c r="J152" s="203"/>
+      <c r="K152" s="203"/>
+      <c r="L152" s="203"/>
+      <c r="M152" s="203"/>
+      <c r="N152" s="203"/>
+      <c r="O152" s="203"/>
+      <c r="P152" s="203"/>
+      <c r="Q152" s="203"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="349"/>
+      <c r="B153" s="350"/>
+      <c r="C153" s="350"/>
+      <c r="D153" s="350"/>
+      <c r="E153" s="350"/>
+      <c r="F153" s="350"/>
+      <c r="G153" s="350"/>
+      <c r="H153" s="350"/>
+      <c r="I153" s="350"/>
+      <c r="J153" s="350"/>
+      <c r="K153" s="350"/>
+      <c r="L153" s="350"/>
+      <c r="M153" s="350"/>
+      <c r="N153" s="350"/>
+      <c r="O153" s="350"/>
+      <c r="P153" s="350"/>
+      <c r="Q153" s="350"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="349"/>
+      <c r="B154" s="350"/>
+      <c r="C154" s="350"/>
+      <c r="D154" s="350"/>
+      <c r="E154" s="350"/>
+      <c r="F154" s="350"/>
+      <c r="G154" s="350"/>
+      <c r="H154" s="350"/>
+      <c r="I154" s="350"/>
+      <c r="J154" s="350"/>
+      <c r="K154" s="350"/>
+      <c r="L154" s="350"/>
+      <c r="M154" s="350"/>
+      <c r="N154" s="350"/>
+      <c r="O154" s="350"/>
+      <c r="P154" s="350"/>
+      <c r="Q154" s="350"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="351"/>
+      <c r="B155" s="350"/>
+      <c r="C155" s="350"/>
+      <c r="D155" s="350"/>
+      <c r="E155" s="350"/>
+      <c r="F155" s="350"/>
+      <c r="G155" s="350"/>
+      <c r="H155" s="350"/>
+      <c r="I155" s="350"/>
+      <c r="J155" s="350"/>
+      <c r="K155" s="350"/>
+      <c r="L155" s="350"/>
+      <c r="M155" s="350"/>
+      <c r="N155" s="350"/>
+      <c r="O155" s="350"/>
+      <c r="P155" s="350"/>
+      <c r="Q155" s="350"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="352"/>
+      <c r="B156" s="353"/>
+      <c r="C156" s="350"/>
+      <c r="D156" s="350"/>
+      <c r="E156" s="350"/>
+      <c r="F156" s="350"/>
+      <c r="G156" s="350"/>
+      <c r="H156" s="350"/>
+      <c r="I156" s="350"/>
+      <c r="J156" s="350"/>
+      <c r="K156" s="350"/>
+      <c r="L156" s="350"/>
+      <c r="M156" s="350"/>
+      <c r="N156" s="350"/>
+      <c r="O156" s="350"/>
+      <c r="P156" s="350"/>
+      <c r="Q156" s="350"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="352"/>
+      <c r="B157" s="353"/>
+      <c r="C157" s="350"/>
+      <c r="D157" s="350"/>
+      <c r="E157" s="350"/>
+      <c r="F157" s="350"/>
+      <c r="G157" s="350"/>
+      <c r="H157" s="350"/>
+      <c r="I157" s="350"/>
+      <c r="J157" s="350"/>
+      <c r="K157" s="350"/>
+      <c r="L157" s="350"/>
+      <c r="M157" s="350"/>
+      <c r="N157" s="350"/>
+      <c r="O157" s="350"/>
+      <c r="P157" s="350"/>
+      <c r="Q157" s="350"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="352"/>
+      <c r="B158" s="353"/>
+      <c r="C158" s="350"/>
+      <c r="D158" s="350"/>
+      <c r="E158" s="350"/>
+      <c r="F158" s="350"/>
+      <c r="G158" s="350"/>
+      <c r="H158" s="350"/>
+      <c r="I158" s="350"/>
+      <c r="J158" s="350"/>
+      <c r="K158" s="350"/>
+      <c r="L158" s="350"/>
+      <c r="M158" s="350"/>
+      <c r="N158" s="350"/>
+      <c r="O158" s="350"/>
+      <c r="P158" s="350"/>
+      <c r="Q158" s="350"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="354"/>
+      <c r="B159" s="353"/>
+      <c r="C159" s="350"/>
+      <c r="D159" s="350"/>
+      <c r="E159" s="350"/>
+      <c r="F159" s="350"/>
+      <c r="G159" s="350"/>
+      <c r="H159" s="350"/>
+      <c r="I159" s="350"/>
+      <c r="J159" s="350"/>
+      <c r="K159" s="350"/>
+      <c r="L159" s="350"/>
+      <c r="M159" s="350"/>
+      <c r="N159" s="350"/>
+      <c r="O159" s="350"/>
+      <c r="P159" s="350"/>
+      <c r="Q159" s="350"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="355"/>
+      <c r="B160" s="355"/>
+      <c r="C160" s="355"/>
+      <c r="D160" s="355"/>
+      <c r="E160" s="355"/>
+      <c r="F160" s="355"/>
+      <c r="G160" s="355"/>
+      <c r="H160" s="355"/>
+      <c r="I160" s="355"/>
+      <c r="J160" s="355"/>
+      <c r="K160" s="355"/>
+      <c r="L160" s="355"/>
+      <c r="M160" s="355"/>
+      <c r="N160" s="355"/>
+      <c r="O160" s="355"/>
+      <c r="P160" s="355"/>
+      <c r="Q160" s="355"/>
+    </row>
+    <row r="163" ht="15.75"/>
+    <row r="164" ht="15.75" spans="1:17">
+      <c r="A164" s="186"/>
+      <c r="B164" s="187"/>
+      <c r="C164" s="187"/>
+      <c r="D164" s="187"/>
+      <c r="E164" s="187"/>
+      <c r="F164" s="187"/>
+      <c r="G164" s="187"/>
+      <c r="H164" s="187"/>
+      <c r="I164" s="187"/>
+      <c r="J164" s="187"/>
+      <c r="K164" s="187"/>
+      <c r="L164" s="187"/>
+      <c r="M164" s="187"/>
+      <c r="N164" s="187"/>
+      <c r="O164" s="251"/>
+      <c r="P164" s="252" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q164" s="251"/>
+    </row>
+    <row r="165" ht="18" spans="1:17">
+      <c r="A165" s="188"/>
+      <c r="B165" s="189"/>
+      <c r="C165" s="189"/>
+      <c r="D165" s="189"/>
+      <c r="E165" s="189"/>
+      <c r="F165" s="189"/>
+      <c r="G165" s="189"/>
+      <c r="H165" s="189"/>
+      <c r="I165" s="189"/>
+      <c r="J165" s="189"/>
+      <c r="K165" s="189"/>
+      <c r="L165" s="189"/>
+      <c r="M165" s="189"/>
+      <c r="N165" s="189"/>
+      <c r="O165" s="253"/>
+      <c r="P165" s="254"/>
+      <c r="Q165" s="307"/>
+    </row>
+    <row r="166" ht="15.75" spans="1:17">
+      <c r="A166" s="190"/>
+      <c r="B166" s="191"/>
+      <c r="C166" s="191"/>
+      <c r="D166" s="192"/>
+      <c r="E166" s="193"/>
+      <c r="F166" s="193"/>
+      <c r="G166" s="193"/>
+      <c r="H166" s="193"/>
+      <c r="I166" s="193"/>
+      <c r="J166" s="193"/>
+      <c r="K166" s="193"/>
+      <c r="L166" s="193"/>
+      <c r="M166" s="193"/>
+      <c r="N166" s="193"/>
+      <c r="O166" s="255"/>
+      <c r="P166" s="188" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q166" s="255"/>
+    </row>
+    <row r="167" ht="18" spans="1:17">
+      <c r="A167" s="190"/>
+      <c r="B167" s="194"/>
+      <c r="C167" s="194"/>
+      <c r="D167" s="195"/>
+      <c r="E167" s="193"/>
+      <c r="F167" s="193"/>
+      <c r="G167" s="193"/>
+      <c r="H167" s="193"/>
+      <c r="I167" s="193"/>
+      <c r="J167" s="193"/>
+      <c r="K167" s="193"/>
+      <c r="L167" s="193"/>
+      <c r="M167" s="193"/>
+      <c r="N167" s="193"/>
+      <c r="O167" s="255"/>
+      <c r="P167" s="256"/>
+      <c r="Q167" s="308"/>
+    </row>
+    <row r="168" ht="15.75" spans="1:17">
+      <c r="A168" s="190"/>
+      <c r="B168" s="191"/>
+      <c r="C168" s="191"/>
+      <c r="D168" s="192"/>
+      <c r="E168" s="193"/>
+      <c r="F168" s="193"/>
+      <c r="G168" s="193"/>
+      <c r="H168" s="193"/>
+      <c r="I168" s="193"/>
+      <c r="J168" s="193"/>
+      <c r="K168" s="193"/>
+      <c r="L168" s="193"/>
+      <c r="M168" s="193"/>
+      <c r="N168" s="193"/>
+      <c r="O168" s="255"/>
+      <c r="P168" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q168" s="309"/>
+    </row>
+    <row r="169" ht="18.75" spans="1:17">
+      <c r="A169" s="190"/>
+      <c r="B169" s="191"/>
+      <c r="C169" s="191"/>
+      <c r="D169" s="192"/>
+      <c r="E169" s="192"/>
+      <c r="F169" s="192"/>
+      <c r="G169" s="192"/>
+      <c r="H169" s="192"/>
+      <c r="I169" s="192"/>
+      <c r="J169" s="192"/>
+      <c r="K169" s="192"/>
+      <c r="L169" s="192"/>
+      <c r="M169" s="192"/>
+      <c r="N169" s="192"/>
+      <c r="O169" s="258"/>
+      <c r="P169" s="259"/>
+      <c r="Q169" s="255"/>
+    </row>
+    <row r="170" ht="23.25" spans="1:17">
+      <c r="A170" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="197"/>
+      <c r="C170" s="197"/>
+      <c r="D170" s="197"/>
+      <c r="E170" s="197"/>
+      <c r="F170" s="197"/>
+      <c r="G170" s="197"/>
+      <c r="H170" s="197"/>
+      <c r="I170" s="197"/>
+      <c r="J170" s="197"/>
+      <c r="K170" s="197"/>
+      <c r="L170" s="197"/>
+      <c r="M170" s="197"/>
+      <c r="N170" s="197"/>
+      <c r="O170" s="197"/>
+      <c r="P170" s="260"/>
+      <c r="Q170" s="310"/>
+    </row>
+    <row r="171" ht="15.75" spans="1:17">
+      <c r="A171" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="187"/>
+      <c r="C171" s="199"/>
+      <c r="D171" s="187"/>
+      <c r="E171" s="187"/>
+      <c r="F171" s="187"/>
+      <c r="G171" s="187"/>
+      <c r="H171" s="187"/>
+      <c r="I171" s="187"/>
+      <c r="J171" s="187"/>
+      <c r="K171" s="187"/>
+      <c r="L171" s="187"/>
+      <c r="M171" s="187"/>
+      <c r="N171" s="187"/>
+      <c r="O171" s="187"/>
+      <c r="P171" s="187"/>
+      <c r="Q171" s="251"/>
+    </row>
+    <row r="172" ht="15.75" spans="1:17">
+      <c r="A172" s="200"/>
+      <c r="B172" s="193"/>
+      <c r="C172" s="201"/>
+      <c r="D172" s="202"/>
+      <c r="E172" s="203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" s="203"/>
+      <c r="G172" s="202"/>
+      <c r="H172" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="203"/>
+      <c r="J172" s="191"/>
+      <c r="K172" s="202"/>
+      <c r="L172" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="M172" s="203"/>
+      <c r="N172" s="261" t="s">
+        <v>8</v>
+      </c>
+      <c r="O172" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="P172" s="203"/>
+      <c r="Q172" s="311"/>
+    </row>
+    <row r="173" ht="16.5" spans="1:17">
+      <c r="A173" s="204"/>
+      <c r="B173" s="205"/>
+      <c r="C173" s="206"/>
+      <c r="D173" s="207"/>
+      <c r="E173" s="207"/>
+      <c r="F173" s="208"/>
+      <c r="G173" s="208"/>
+      <c r="H173" s="207"/>
+      <c r="I173" s="205"/>
+      <c r="J173" s="207"/>
+      <c r="K173" s="207"/>
+      <c r="L173" s="205"/>
+      <c r="M173" s="207"/>
+      <c r="N173" s="207"/>
+      <c r="O173" s="208"/>
+      <c r="P173" s="207"/>
+      <c r="Q173" s="312"/>
+    </row>
+    <row r="174" ht="20.25" spans="1:17">
+      <c r="A174" s="198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="187"/>
+      <c r="C174" s="209" t="s">
+        <v>73</v>
+      </c>
+      <c r="D174" s="187"/>
+      <c r="E174" s="187"/>
+      <c r="F174" s="187"/>
+      <c r="G174" s="187"/>
+      <c r="H174" s="187"/>
+      <c r="I174" s="187"/>
+      <c r="J174" s="187"/>
+      <c r="K174" s="209" t="s">
+        <v>11</v>
+      </c>
+      <c r="L174" s="187"/>
+      <c r="M174" s="187"/>
+      <c r="N174" s="187"/>
+      <c r="O174" s="187"/>
+      <c r="P174" s="262" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q174" s="251"/>
+    </row>
+    <row r="175" ht="20.25" spans="1:17">
+      <c r="A175" s="200"/>
+      <c r="B175" s="193"/>
+      <c r="C175" s="210"/>
+      <c r="D175" s="211"/>
+      <c r="E175" s="211"/>
+      <c r="F175" s="211"/>
+      <c r="G175" s="211"/>
+      <c r="H175" s="211"/>
+      <c r="I175" s="211"/>
+      <c r="J175" s="211"/>
+      <c r="K175" s="263"/>
+      <c r="L175" s="193"/>
+      <c r="M175" s="193"/>
+      <c r="N175" s="193"/>
+      <c r="O175" s="193"/>
+      <c r="P175" s="264"/>
+      <c r="Q175" s="313"/>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="213"/>
+      <c r="C176" s="214" t="s">
+        <v>74</v>
+      </c>
+      <c r="D176" s="213"/>
+      <c r="E176" s="213"/>
+      <c r="F176" s="213"/>
+      <c r="G176" s="213"/>
+      <c r="H176" s="213"/>
+      <c r="I176" s="213"/>
+      <c r="J176" s="213"/>
+      <c r="K176" s="213"/>
+      <c r="L176" s="213"/>
+      <c r="M176" s="213"/>
+      <c r="N176" s="213"/>
+      <c r="O176" s="213"/>
+      <c r="P176" s="213"/>
+      <c r="Q176" s="309"/>
+    </row>
+    <row r="177" ht="15.75" spans="1:17">
+      <c r="A177" s="204"/>
+      <c r="B177" s="205"/>
+      <c r="C177" s="215"/>
+      <c r="D177" s="205"/>
+      <c r="E177" s="205"/>
+      <c r="F177" s="205"/>
+      <c r="G177" s="205"/>
+      <c r="H177" s="205"/>
+      <c r="I177" s="205"/>
+      <c r="J177" s="205"/>
+      <c r="K177" s="205"/>
+      <c r="L177" s="205"/>
+      <c r="M177" s="205"/>
+      <c r="N177" s="205"/>
+      <c r="O177" s="205"/>
+      <c r="P177" s="205"/>
+      <c r="Q177" s="314"/>
+    </row>
+    <row r="178" ht="18" spans="1:17">
+      <c r="A178" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="217"/>
+      <c r="C178" s="217"/>
+      <c r="D178" s="217"/>
+      <c r="E178" s="217"/>
+      <c r="F178" s="217"/>
+      <c r="G178" s="217"/>
+      <c r="H178" s="217"/>
+      <c r="I178" s="217"/>
+      <c r="J178" s="217"/>
+      <c r="K178" s="265"/>
+      <c r="L178" s="266"/>
+      <c r="M178" s="265" t="s">
+        <v>15</v>
+      </c>
+      <c r="N178" s="217"/>
+      <c r="O178" s="266"/>
+      <c r="P178" s="265" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q178" s="315"/>
+    </row>
+    <row r="179" ht="15.75" spans="1:17">
+      <c r="A179" s="218"/>
+      <c r="B179" s="219"/>
+      <c r="C179" s="219"/>
+      <c r="D179" s="219"/>
+      <c r="E179" s="219"/>
+      <c r="F179" s="219"/>
+      <c r="G179" s="219"/>
+      <c r="H179" s="219"/>
+      <c r="I179" s="219"/>
+      <c r="J179" s="267"/>
+      <c r="K179" s="268"/>
+      <c r="L179" s="269"/>
+      <c r="M179" s="268"/>
+      <c r="N179" s="270"/>
+      <c r="O179" s="271"/>
+      <c r="P179" s="272"/>
+      <c r="Q179" s="316"/>
+    </row>
+    <row r="180" ht="20.25" spans="1:17">
+      <c r="A180" s="220"/>
+      <c r="B180" s="221"/>
+      <c r="C180" s="221"/>
+      <c r="D180" s="221"/>
+      <c r="E180" s="221"/>
+      <c r="F180" s="221"/>
+      <c r="G180" s="221"/>
+      <c r="H180" s="221"/>
+      <c r="I180" s="221"/>
+      <c r="J180" s="273"/>
+      <c r="K180" s="274" t="s">
+        <v>75</v>
+      </c>
+      <c r="L180" s="275"/>
+      <c r="M180" s="201"/>
+      <c r="N180" s="191"/>
+      <c r="O180" s="276" t="s">
+        <v>18</v>
+      </c>
+      <c r="P180" s="277"/>
+      <c r="Q180" s="317"/>
+    </row>
+    <row r="181" ht="15.75" spans="1:17">
+      <c r="A181" s="220"/>
+      <c r="B181" s="221"/>
+      <c r="C181" s="221"/>
+      <c r="D181" s="221"/>
+      <c r="E181" s="221"/>
+      <c r="F181" s="221"/>
+      <c r="G181" s="221"/>
+      <c r="H181" s="221"/>
+      <c r="I181" s="221"/>
+      <c r="J181" s="273"/>
+      <c r="K181" s="278"/>
+      <c r="L181" s="279"/>
+      <c r="M181" s="201"/>
+      <c r="N181" s="191"/>
+      <c r="O181" s="280"/>
+      <c r="P181" s="201"/>
+      <c r="Q181" s="318"/>
+    </row>
+    <row r="182" ht="15.75" spans="1:17">
+      <c r="A182" s="220"/>
+      <c r="B182" s="221"/>
+      <c r="C182" s="221"/>
+      <c r="D182" s="221"/>
+      <c r="E182" s="221"/>
+      <c r="F182" s="221"/>
+      <c r="G182" s="221"/>
+      <c r="H182" s="221"/>
+      <c r="I182" s="221"/>
+      <c r="J182" s="273"/>
+      <c r="K182" s="278"/>
+      <c r="L182" s="279"/>
+      <c r="M182" s="201"/>
+      <c r="N182" s="191"/>
+      <c r="O182" s="280"/>
+      <c r="P182" s="281"/>
+      <c r="Q182" s="318"/>
+    </row>
+    <row r="183" ht="15.75" spans="1:17">
+      <c r="A183" s="220"/>
+      <c r="B183" s="221"/>
+      <c r="C183" s="221"/>
+      <c r="D183" s="221"/>
+      <c r="E183" s="221"/>
+      <c r="F183" s="221"/>
+      <c r="G183" s="221"/>
+      <c r="H183" s="221"/>
+      <c r="I183" s="221"/>
+      <c r="J183" s="273"/>
+      <c r="K183" s="278"/>
+      <c r="L183" s="279"/>
+      <c r="M183" s="201"/>
+      <c r="N183" s="191"/>
+      <c r="O183" s="280"/>
+      <c r="P183" s="281"/>
+      <c r="Q183" s="318"/>
+    </row>
+    <row r="184" ht="15.75" spans="1:17">
+      <c r="A184" s="220"/>
+      <c r="B184" s="221"/>
+      <c r="C184" s="221"/>
+      <c r="D184" s="221"/>
+      <c r="E184" s="221"/>
+      <c r="F184" s="221"/>
+      <c r="G184" s="221"/>
+      <c r="H184" s="221"/>
+      <c r="I184" s="221"/>
+      <c r="J184" s="273"/>
+      <c r="K184" s="278"/>
+      <c r="L184" s="279"/>
+      <c r="M184" s="201"/>
+      <c r="N184" s="191"/>
+      <c r="O184" s="280"/>
+      <c r="P184" s="281"/>
+      <c r="Q184" s="318"/>
+    </row>
+    <row r="185" ht="15.75" spans="1:17">
+      <c r="A185" s="220"/>
+      <c r="B185" s="221"/>
+      <c r="C185" s="221"/>
+      <c r="D185" s="221"/>
+      <c r="E185" s="221"/>
+      <c r="F185" s="221"/>
+      <c r="G185" s="221"/>
+      <c r="H185" s="221"/>
+      <c r="I185" s="221"/>
+      <c r="J185" s="273"/>
+      <c r="K185" s="201"/>
+      <c r="L185" s="280"/>
+      <c r="M185" s="201"/>
+      <c r="N185" s="191"/>
+      <c r="O185" s="280"/>
+      <c r="P185" s="201"/>
+      <c r="Q185" s="318"/>
+    </row>
+    <row r="186" ht="15.75" spans="1:17">
+      <c r="A186" s="222"/>
+      <c r="B186" s="223"/>
+      <c r="C186" s="224"/>
+      <c r="D186" s="193"/>
+      <c r="E186" s="224"/>
+      <c r="F186" s="224"/>
+      <c r="G186" s="225"/>
+      <c r="H186" s="193"/>
+      <c r="I186" s="193"/>
+      <c r="J186" s="282"/>
+      <c r="K186" s="203"/>
+      <c r="L186" s="279"/>
+      <c r="M186" s="278"/>
+      <c r="N186" s="203"/>
+      <c r="O186" s="279"/>
+      <c r="P186" s="283"/>
+      <c r="Q186" s="318"/>
+    </row>
+    <row r="187" ht="15.75" spans="1:17">
+      <c r="A187" s="222"/>
+      <c r="B187" s="223"/>
+      <c r="C187" s="224"/>
+      <c r="D187" s="193"/>
+      <c r="E187" s="224"/>
+      <c r="F187" s="224"/>
+      <c r="G187" s="225"/>
+      <c r="H187" s="193"/>
+      <c r="I187" s="193"/>
+      <c r="J187" s="282"/>
+      <c r="K187" s="203"/>
+      <c r="L187" s="279"/>
+      <c r="M187" s="278"/>
+      <c r="N187" s="203"/>
+      <c r="O187" s="279"/>
+      <c r="P187" s="283"/>
+      <c r="Q187" s="318"/>
+    </row>
+    <row r="188" ht="15.75" spans="1:17">
+      <c r="A188" s="222"/>
+      <c r="B188" s="223"/>
+      <c r="C188" s="224"/>
+      <c r="D188" s="193"/>
+      <c r="E188" s="224"/>
+      <c r="F188" s="224"/>
+      <c r="G188" s="225"/>
+      <c r="H188" s="193"/>
+      <c r="I188" s="193"/>
+      <c r="J188" s="282"/>
+      <c r="K188" s="203"/>
+      <c r="L188" s="279"/>
+      <c r="M188" s="278"/>
+      <c r="N188" s="203"/>
+      <c r="O188" s="279"/>
+      <c r="P188" s="283"/>
+      <c r="Q188" s="318"/>
+    </row>
+    <row r="189" ht="15.75" spans="1:17">
+      <c r="A189" s="222"/>
+      <c r="B189" s="223"/>
+      <c r="C189" s="224"/>
+      <c r="D189" s="193"/>
+      <c r="E189" s="224"/>
+      <c r="F189" s="224"/>
+      <c r="G189" s="225"/>
+      <c r="H189" s="193"/>
+      <c r="I189" s="193"/>
+      <c r="J189" s="282"/>
+      <c r="K189" s="203"/>
+      <c r="L189" s="279"/>
+      <c r="M189" s="278"/>
+      <c r="N189" s="203"/>
+      <c r="O189" s="279"/>
+      <c r="P189" s="283"/>
+      <c r="Q189" s="318"/>
+    </row>
+    <row r="190" ht="15.75" spans="1:17">
+      <c r="A190" s="222"/>
+      <c r="B190" s="223"/>
+      <c r="C190" s="224"/>
+      <c r="D190" s="193"/>
+      <c r="E190" s="226"/>
+      <c r="F190" s="224"/>
+      <c r="G190" s="225"/>
+      <c r="H190" s="193"/>
+      <c r="I190" s="193"/>
+      <c r="J190" s="282"/>
+      <c r="K190" s="203"/>
+      <c r="L190" s="279"/>
+      <c r="M190" s="278"/>
+      <c r="N190" s="203"/>
+      <c r="O190" s="279"/>
+      <c r="P190" s="283"/>
+      <c r="Q190" s="318"/>
+    </row>
+    <row r="191" ht="18" spans="1:17">
+      <c r="A191" s="222"/>
+      <c r="B191" s="203"/>
+      <c r="C191" s="227"/>
+      <c r="D191" s="228"/>
+      <c r="E191" s="228"/>
+      <c r="F191" s="228"/>
+      <c r="G191" s="228"/>
+      <c r="H191" s="228"/>
+      <c r="I191" s="228"/>
+      <c r="J191" s="284"/>
+      <c r="K191" s="285"/>
+      <c r="L191" s="286"/>
+      <c r="M191" s="287"/>
+      <c r="N191" s="285"/>
+      <c r="O191" s="286"/>
+      <c r="P191" s="288"/>
+      <c r="Q191" s="319"/>
+    </row>
+    <row r="192" ht="15.75" spans="1:17">
+      <c r="A192" s="222"/>
+      <c r="B192" s="203"/>
+      <c r="C192" s="203"/>
+      <c r="D192" s="203"/>
+      <c r="E192" s="203"/>
+      <c r="F192" s="229"/>
+      <c r="G192" s="230"/>
+      <c r="H192" s="230"/>
+      <c r="I192" s="230"/>
+      <c r="J192" s="230"/>
+      <c r="K192" s="287"/>
+      <c r="L192" s="286"/>
+      <c r="M192" s="287"/>
+      <c r="N192" s="285"/>
+      <c r="O192" s="286"/>
+      <c r="P192" s="288"/>
+      <c r="Q192" s="320"/>
+    </row>
+    <row r="193" ht="18.75" spans="1:17">
+      <c r="A193" s="231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="205"/>
+      <c r="C193" s="205"/>
+      <c r="D193" s="205"/>
+      <c r="E193" s="205"/>
+      <c r="F193" s="205"/>
+      <c r="G193" s="205"/>
+      <c r="H193" s="205"/>
+      <c r="I193" s="205"/>
+      <c r="J193" s="205"/>
+      <c r="K193" s="289"/>
+      <c r="L193" s="290"/>
+      <c r="M193" s="289"/>
+      <c r="N193" s="208"/>
+      <c r="O193" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="P193" s="292"/>
+      <c r="Q193" s="321">
+        <f>Q180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" spans="1:17">
+      <c r="A194" s="232" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" s="233" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="193"/>
+      <c r="D194" s="193"/>
+      <c r="E194" s="193"/>
+      <c r="F194" s="193"/>
+      <c r="G194" s="193"/>
+      <c r="H194" s="193"/>
+      <c r="I194" s="193"/>
+      <c r="J194" s="193"/>
+      <c r="K194" s="193"/>
+      <c r="L194" s="193"/>
+      <c r="M194" s="193"/>
+      <c r="N194" s="193"/>
+      <c r="O194" s="193"/>
+      <c r="P194" s="193"/>
+      <c r="Q194" s="255"/>
+    </row>
+    <row r="195" ht="15.75" spans="1:17">
+      <c r="A195" s="234"/>
+      <c r="B195" s="192"/>
+      <c r="C195" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" s="191"/>
+      <c r="E195" s="191"/>
+      <c r="F195" s="191"/>
+      <c r="G195" s="191"/>
+      <c r="H195" s="191"/>
+      <c r="I195" s="191"/>
+      <c r="J195" s="191"/>
+      <c r="K195" s="192"/>
+      <c r="L195" s="223"/>
+      <c r="M195" s="223"/>
+      <c r="N195" s="203"/>
+      <c r="O195" s="223"/>
+      <c r="P195" s="293"/>
+      <c r="Q195" s="253"/>
+    </row>
+    <row r="196" ht="15.75" spans="1:17">
+      <c r="A196" s="234"/>
+      <c r="B196" s="192"/>
+      <c r="C196" s="191"/>
+      <c r="D196" s="191"/>
+      <c r="E196" s="191"/>
+      <c r="F196" s="191"/>
+      <c r="G196" s="191"/>
+      <c r="H196" s="191"/>
+      <c r="I196" s="191"/>
+      <c r="J196" s="191"/>
+      <c r="K196" s="192"/>
+      <c r="L196" s="223"/>
+      <c r="M196" s="223"/>
+      <c r="N196" s="203"/>
+      <c r="O196" s="223"/>
+      <c r="P196" s="293"/>
+      <c r="Q196" s="253"/>
+    </row>
+    <row r="197" ht="15.75" spans="1:17">
+      <c r="A197" s="234"/>
+      <c r="B197" s="192"/>
+      <c r="C197" s="191"/>
+      <c r="D197" s="191"/>
+      <c r="E197" s="191"/>
+      <c r="F197" s="191"/>
+      <c r="G197" s="191"/>
+      <c r="H197" s="191"/>
+      <c r="I197" s="191"/>
+      <c r="J197" s="191"/>
+      <c r="K197" s="192"/>
+      <c r="L197" s="223"/>
+      <c r="M197" s="223"/>
+      <c r="N197" s="203"/>
+      <c r="O197" s="223"/>
+      <c r="P197" s="293"/>
+      <c r="Q197" s="253"/>
+    </row>
+    <row r="198" ht="15.75" spans="1:17">
+      <c r="A198" s="234"/>
+      <c r="B198" s="192"/>
+      <c r="C198" s="191"/>
+      <c r="D198" s="191"/>
+      <c r="E198" s="191"/>
+      <c r="F198" s="191"/>
+      <c r="G198" s="191"/>
+      <c r="H198" s="191"/>
+      <c r="I198" s="191"/>
+      <c r="J198" s="191"/>
+      <c r="K198" s="192"/>
+      <c r="L198" s="223"/>
+      <c r="M198" s="223"/>
+      <c r="N198" s="203"/>
+      <c r="O198" s="223"/>
+      <c r="P198" s="293"/>
+      <c r="Q198" s="253"/>
+    </row>
+    <row r="199" ht="20.25" spans="1:17">
+      <c r="A199" s="235"/>
+      <c r="B199" s="193"/>
+      <c r="C199" s="193"/>
+      <c r="D199" s="193"/>
+      <c r="E199" s="193"/>
+      <c r="F199" s="193"/>
+      <c r="G199" s="193"/>
+      <c r="H199" s="193"/>
+      <c r="I199" s="193"/>
+      <c r="J199" s="193"/>
+      <c r="K199" s="193"/>
+      <c r="L199" s="193"/>
+      <c r="M199" s="193"/>
+      <c r="N199" s="193"/>
+      <c r="O199" s="193"/>
+      <c r="P199" s="193"/>
+      <c r="Q199" s="255"/>
+    </row>
+    <row r="200" ht="21" spans="1:17">
+      <c r="A200" s="236" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" s="193"/>
+      <c r="C200" s="193"/>
+      <c r="D200" s="193"/>
+      <c r="E200" s="193"/>
+      <c r="F200" s="193"/>
+      <c r="G200" s="193"/>
+      <c r="H200" s="193"/>
+      <c r="I200" s="193"/>
+      <c r="J200" s="193"/>
+      <c r="K200" s="193"/>
+      <c r="L200" s="193"/>
+      <c r="M200" s="193"/>
+      <c r="N200" s="193"/>
+      <c r="O200" s="193"/>
+      <c r="P200" s="193"/>
+      <c r="Q200" s="255"/>
+    </row>
+    <row r="201" ht="15.75" spans="1:17">
+      <c r="A201" s="237" t="s">
+        <v>35</v>
+      </c>
+      <c r="B201" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" s="239"/>
+      <c r="D201" s="239"/>
+      <c r="E201" s="239"/>
+      <c r="F201" s="239"/>
+      <c r="G201" s="239"/>
+      <c r="H201" s="239"/>
+      <c r="I201" s="239"/>
+      <c r="J201" s="239"/>
+      <c r="K201" s="239"/>
+      <c r="L201" s="239"/>
+      <c r="M201" s="239"/>
+      <c r="N201" s="239"/>
+      <c r="O201" s="239"/>
+      <c r="P201" s="239"/>
+      <c r="Q201" s="322"/>
+    </row>
+    <row r="202" ht="15.75" spans="1:17">
+      <c r="A202" s="240" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="241"/>
+      <c r="C202" s="241"/>
+      <c r="D202" s="241"/>
+      <c r="E202" s="241"/>
+      <c r="F202" s="241"/>
+      <c r="G202" s="241"/>
+      <c r="H202" s="241"/>
+      <c r="I202" s="241"/>
+      <c r="J202" s="241"/>
+      <c r="K202" s="294" t="s">
+        <v>38</v>
+      </c>
+      <c r="L202" s="241"/>
+      <c r="M202" s="295"/>
+      <c r="N202" s="296"/>
+      <c r="O202" s="297"/>
+      <c r="P202" s="298" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q202" s="323" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" ht="18" spans="1:17">
+      <c r="A203" s="242"/>
+      <c r="B203" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C203" s="227"/>
+      <c r="D203" s="227"/>
+      <c r="E203" s="227"/>
+      <c r="F203" s="227"/>
+      <c r="G203" s="227"/>
+      <c r="H203" s="227"/>
+      <c r="I203" s="227"/>
+      <c r="J203" s="227"/>
+      <c r="K203" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="L203" s="300"/>
+      <c r="M203" s="301"/>
+      <c r="N203" s="300"/>
+      <c r="O203" s="300"/>
+      <c r="P203" s="301"/>
+      <c r="Q203" s="324"/>
+    </row>
+    <row r="204" ht="18" spans="1:17">
+      <c r="A204" s="242"/>
+      <c r="B204" s="227" t="s">
+        <v>76</v>
+      </c>
+      <c r="C204" s="227"/>
+      <c r="D204" s="227"/>
+      <c r="E204" s="227"/>
+      <c r="F204" s="227"/>
+      <c r="G204" s="227"/>
+      <c r="H204" s="227"/>
+      <c r="I204" s="227"/>
+      <c r="J204" s="227"/>
+      <c r="K204" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="L204" s="300"/>
+      <c r="M204" s="301"/>
+      <c r="N204" s="300"/>
+      <c r="O204" s="300"/>
+      <c r="P204" s="301"/>
+      <c r="Q204" s="324"/>
+    </row>
+    <row r="205" ht="18.75" spans="1:17">
+      <c r="A205" s="243"/>
+      <c r="B205" s="244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C205" s="205"/>
+      <c r="D205" s="205"/>
+      <c r="E205" s="205"/>
+      <c r="F205" s="205"/>
+      <c r="G205" s="205"/>
+      <c r="H205" s="205"/>
+      <c r="I205" s="205"/>
+      <c r="J205" s="205"/>
+      <c r="K205" s="381" t="s">
+        <v>42</v>
+      </c>
+      <c r="L205" s="205"/>
+      <c r="M205" s="303"/>
+      <c r="N205" s="304"/>
+      <c r="O205" s="304"/>
+      <c r="P205" s="305"/>
+      <c r="Q205" s="325"/>
+    </row>
+    <row r="206" ht="16.5" spans="1:17">
+      <c r="A206" s="326" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" s="327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="205"/>
+      <c r="D206" s="205"/>
+      <c r="E206" s="205"/>
+      <c r="F206" s="205"/>
+      <c r="G206" s="205"/>
+      <c r="H206" s="205"/>
+      <c r="I206" s="205"/>
+      <c r="J206" s="205"/>
+      <c r="K206" s="356" t="s">
+        <v>46</v>
+      </c>
+      <c r="L206" s="208" t="s">
+        <v>47</v>
+      </c>
+      <c r="M206" s="205"/>
+      <c r="N206" s="205"/>
+      <c r="O206" s="205"/>
+      <c r="P206" s="205"/>
+      <c r="Q206" s="314"/>
+    </row>
+    <row r="207" ht="18" spans="1:17">
+      <c r="A207" s="328"/>
+      <c r="B207" s="329"/>
+      <c r="C207" s="330" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207" s="330"/>
+      <c r="E207" s="330"/>
+      <c r="F207" s="330"/>
+      <c r="G207" s="330"/>
+      <c r="H207" s="330"/>
+      <c r="I207" s="330"/>
+      <c r="J207" s="330"/>
+      <c r="K207" s="357"/>
+      <c r="L207" s="187"/>
+      <c r="M207" s="187"/>
+      <c r="N207" s="187"/>
+      <c r="O207" s="187"/>
+      <c r="P207" s="187"/>
+      <c r="Q207" s="251"/>
+    </row>
+    <row r="208" ht="18" spans="1:17">
+      <c r="A208" s="222"/>
+      <c r="B208" s="202"/>
+      <c r="C208" s="331" t="s">
+        <v>50</v>
+      </c>
+      <c r="D208" s="331"/>
+      <c r="E208" s="331"/>
+      <c r="F208" s="331"/>
+      <c r="G208" s="331"/>
+      <c r="H208" s="331"/>
+      <c r="I208" s="331"/>
+      <c r="J208" s="331"/>
+      <c r="K208" s="200"/>
+      <c r="L208" s="193"/>
+      <c r="M208" s="193"/>
+      <c r="N208" s="193"/>
+      <c r="O208" s="193"/>
+      <c r="P208" s="193"/>
+      <c r="Q208" s="255"/>
+    </row>
+    <row r="209" ht="18" spans="1:17">
+      <c r="A209" s="234"/>
+      <c r="B209" s="202"/>
+      <c r="C209" s="331" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209" s="331"/>
+      <c r="E209" s="331"/>
+      <c r="F209" s="331"/>
+      <c r="G209" s="331"/>
+      <c r="H209" s="331"/>
+      <c r="I209" s="331"/>
+      <c r="J209" s="331"/>
+      <c r="K209" s="200"/>
+      <c r="L209" s="193"/>
+      <c r="M209" s="193"/>
+      <c r="N209" s="193"/>
+      <c r="O209" s="193"/>
+      <c r="P209" s="193"/>
+      <c r="Q209" s="255"/>
+    </row>
+    <row r="210" ht="18.75" spans="1:17">
+      <c r="A210" s="332"/>
+      <c r="B210" s="208"/>
+      <c r="C210" s="333" t="s">
+        <v>52</v>
+      </c>
+      <c r="D210" s="333"/>
+      <c r="E210" s="333"/>
+      <c r="F210" s="333"/>
+      <c r="G210" s="333"/>
+      <c r="H210" s="333"/>
+      <c r="I210" s="333"/>
+      <c r="J210" s="333"/>
+      <c r="K210" s="204"/>
+      <c r="L210" s="205"/>
+      <c r="M210" s="205"/>
+      <c r="N210" s="205"/>
+      <c r="O210" s="205"/>
+      <c r="P210" s="205"/>
+      <c r="Q210" s="314"/>
+    </row>
+    <row r="211" spans="1:17">
+      <c r="A211" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="B211" s="187"/>
+      <c r="C211" s="335"/>
+      <c r="D211" s="187"/>
+      <c r="E211" s="187"/>
+      <c r="F211" s="187"/>
+      <c r="G211" s="187"/>
+      <c r="H211" s="187"/>
+      <c r="I211" s="187"/>
+      <c r="J211" s="187"/>
+      <c r="K211" s="334" t="s">
+        <v>53</v>
+      </c>
+      <c r="L211" s="358"/>
+      <c r="M211" s="359"/>
+      <c r="N211" s="187"/>
+      <c r="O211" s="187"/>
+      <c r="P211" s="187"/>
+      <c r="Q211" s="251"/>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="A212" s="336"/>
+      <c r="B212" s="211"/>
+      <c r="C212" s="210"/>
+      <c r="D212" s="211"/>
+      <c r="E212" s="211"/>
+      <c r="F212" s="211"/>
+      <c r="G212" s="211"/>
+      <c r="H212" s="211"/>
+      <c r="I212" s="211"/>
+      <c r="J212" s="211"/>
+      <c r="K212" s="336"/>
+      <c r="L212" s="360"/>
+      <c r="M212" s="211"/>
+      <c r="N212" s="211"/>
+      <c r="O212" s="211"/>
+      <c r="P212" s="211"/>
+      <c r="Q212" s="308"/>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" s="337" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213" s="213"/>
+      <c r="C213" s="338"/>
+      <c r="D213" s="213"/>
+      <c r="E213" s="213"/>
+      <c r="F213" s="213"/>
+      <c r="G213" s="213"/>
+      <c r="H213" s="213"/>
+      <c r="I213" s="213"/>
+      <c r="J213" s="213"/>
+      <c r="K213" s="361" t="s">
+        <v>54</v>
+      </c>
+      <c r="L213" s="362"/>
+      <c r="M213" s="363"/>
+      <c r="N213" s="213"/>
+      <c r="O213" s="213"/>
+      <c r="P213" s="213"/>
+      <c r="Q213" s="309"/>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="A214" s="336"/>
+      <c r="B214" s="211"/>
+      <c r="C214" s="210"/>
+      <c r="D214" s="211"/>
+      <c r="E214" s="211"/>
+      <c r="F214" s="211"/>
+      <c r="G214" s="211"/>
+      <c r="H214" s="211"/>
+      <c r="I214" s="211"/>
+      <c r="J214" s="211"/>
+      <c r="K214" s="336"/>
+      <c r="L214" s="360"/>
+      <c r="M214" s="211"/>
+      <c r="N214" s="211"/>
+      <c r="O214" s="211"/>
+      <c r="P214" s="211"/>
+      <c r="Q214" s="308"/>
+    </row>
+    <row r="215" ht="20.25" spans="1:17">
+      <c r="A215" s="337" t="s">
+        <v>55</v>
+      </c>
+      <c r="B215" s="213"/>
+      <c r="C215" s="339" t="s">
+        <v>56</v>
+      </c>
+      <c r="D215" s="213"/>
+      <c r="E215" s="213"/>
+      <c r="F215" s="213"/>
+      <c r="G215" s="213"/>
+      <c r="H215" s="213"/>
+      <c r="I215" s="213"/>
+      <c r="J215" s="309"/>
+      <c r="K215" s="361" t="s">
+        <v>55</v>
+      </c>
+      <c r="L215" s="362"/>
+      <c r="M215" s="339" t="s">
+        <v>57</v>
+      </c>
+      <c r="N215" s="213"/>
+      <c r="O215" s="213"/>
+      <c r="P215" s="213"/>
+      <c r="Q215" s="309"/>
+    </row>
+    <row r="216" ht="20.25" spans="1:17">
+      <c r="A216" s="200"/>
+      <c r="B216" s="193"/>
+      <c r="C216" s="340" t="s">
+        <v>58</v>
+      </c>
+      <c r="D216" s="211"/>
+      <c r="E216" s="211"/>
+      <c r="F216" s="211"/>
+      <c r="G216" s="211"/>
+      <c r="H216" s="211"/>
+      <c r="I216" s="211"/>
+      <c r="J216" s="211"/>
+      <c r="K216" s="200"/>
+      <c r="L216" s="364"/>
+      <c r="M216" s="365" t="s">
+        <v>59</v>
+      </c>
+      <c r="N216" s="211"/>
+      <c r="O216" s="211"/>
+      <c r="P216" s="211"/>
+      <c r="Q216" s="308"/>
+    </row>
+    <row r="217" spans="1:17">
+      <c r="A217" s="341" t="s">
+        <v>60</v>
+      </c>
+      <c r="B217" s="213"/>
+      <c r="C217" s="342"/>
+      <c r="D217" s="213"/>
+      <c r="E217" s="213"/>
+      <c r="F217" s="213"/>
+      <c r="G217" s="213"/>
+      <c r="H217" s="213"/>
+      <c r="I217" s="213"/>
+      <c r="J217" s="213"/>
+      <c r="K217" s="341" t="s">
+        <v>60</v>
+      </c>
+      <c r="L217" s="362"/>
+      <c r="M217" s="366"/>
+      <c r="N217" s="213"/>
+      <c r="O217" s="213"/>
+      <c r="P217" s="213"/>
+      <c r="Q217" s="309"/>
+    </row>
+    <row r="218" ht="15.75" spans="1:17">
+      <c r="A218" s="204"/>
+      <c r="B218" s="205"/>
+      <c r="C218" s="215"/>
+      <c r="D218" s="205"/>
+      <c r="E218" s="205"/>
+      <c r="F218" s="205"/>
+      <c r="G218" s="205"/>
+      <c r="H218" s="205"/>
+      <c r="I218" s="205"/>
+      <c r="J218" s="205"/>
+      <c r="K218" s="204"/>
+      <c r="L218" s="303"/>
+      <c r="M218" s="205"/>
+      <c r="N218" s="205"/>
+      <c r="O218" s="205"/>
+      <c r="P218" s="205"/>
+      <c r="Q218" s="314"/>
+    </row>
+    <row r="219" ht="15.75" spans="1:17">
+      <c r="A219" s="237" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219" s="343" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" s="217"/>
+      <c r="D219" s="217"/>
+      <c r="E219" s="217"/>
+      <c r="F219" s="217"/>
+      <c r="G219" s="217"/>
+      <c r="H219" s="217"/>
+      <c r="I219" s="217"/>
+      <c r="J219" s="217"/>
+      <c r="K219" s="217"/>
+      <c r="L219" s="217"/>
+      <c r="M219" s="217"/>
+      <c r="N219" s="217"/>
+      <c r="O219" s="266"/>
+      <c r="P219" s="367" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q219" s="374"/>
+    </row>
+    <row r="220" ht="15.75" spans="1:17">
+      <c r="A220" s="344" t="s">
+        <v>64</v>
+      </c>
+      <c r="B220" s="213"/>
+      <c r="C220" s="272" t="s">
+        <v>78</v>
+      </c>
+      <c r="D220" s="213"/>
+      <c r="E220" s="213"/>
+      <c r="F220" s="213"/>
+      <c r="G220" s="213"/>
+      <c r="H220" s="213"/>
+      <c r="I220" s="362"/>
+      <c r="J220" s="368" t="s">
+        <v>65</v>
+      </c>
+      <c r="K220" s="369" t="s">
+        <v>66</v>
+      </c>
+      <c r="L220" s="213"/>
+      <c r="M220" s="213"/>
+      <c r="N220" s="213"/>
+      <c r="O220" s="362"/>
+      <c r="P220" s="370" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q220" s="255"/>
+    </row>
+    <row r="221" ht="18" spans="1:17">
+      <c r="A221" s="336"/>
+      <c r="B221" s="211"/>
+      <c r="C221" s="210"/>
+      <c r="D221" s="211"/>
+      <c r="E221" s="211"/>
+      <c r="F221" s="211"/>
+      <c r="G221" s="211"/>
+      <c r="H221" s="211"/>
+      <c r="I221" s="360"/>
+      <c r="J221" s="210"/>
+      <c r="K221" s="371"/>
+      <c r="L221" s="211"/>
+      <c r="M221" s="211"/>
+      <c r="N221" s="211"/>
+      <c r="O221" s="360"/>
+      <c r="P221" s="210"/>
+      <c r="Q221" s="308"/>
+    </row>
+    <row r="222" ht="15.75" spans="1:17">
+      <c r="A222" s="344" t="s">
+        <v>68</v>
+      </c>
+      <c r="B222" s="213"/>
+      <c r="C222" s="272"/>
+      <c r="D222" s="213"/>
+      <c r="E222" s="213"/>
+      <c r="F222" s="213"/>
+      <c r="G222" s="213"/>
+      <c r="H222" s="213"/>
+      <c r="I222" s="362"/>
+      <c r="J222" s="368" t="s">
+        <v>65</v>
+      </c>
+      <c r="K222" s="369" t="s">
+        <v>69</v>
+      </c>
+      <c r="L222" s="213"/>
+      <c r="M222" s="213"/>
+      <c r="N222" s="213"/>
+      <c r="O222" s="362"/>
+      <c r="P222" s="270" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q222" s="375"/>
+    </row>
+    <row r="223" ht="15.75" spans="1:17">
+      <c r="A223" s="336"/>
+      <c r="B223" s="211"/>
+      <c r="C223" s="210"/>
+      <c r="D223" s="211"/>
+      <c r="E223" s="211"/>
+      <c r="F223" s="211"/>
+      <c r="G223" s="211"/>
+      <c r="H223" s="211"/>
+      <c r="I223" s="360"/>
+      <c r="J223" s="210"/>
+      <c r="K223" s="372"/>
+      <c r="L223" s="211"/>
+      <c r="M223" s="211"/>
+      <c r="N223" s="211"/>
+      <c r="O223" s="360"/>
+      <c r="P223" s="370" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q223" s="255"/>
+    </row>
+    <row r="224" ht="16.5" spans="1:17">
+      <c r="A224" s="345" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" s="346"/>
+      <c r="C224" s="346"/>
+      <c r="D224" s="346"/>
+      <c r="E224" s="346"/>
+      <c r="F224" s="346"/>
+      <c r="G224" s="346"/>
+      <c r="H224" s="346"/>
+      <c r="I224" s="346"/>
+      <c r="J224" s="346"/>
+      <c r="K224" s="346"/>
+      <c r="L224" s="346"/>
+      <c r="M224" s="346"/>
+      <c r="N224" s="346"/>
+      <c r="O224" s="373"/>
+      <c r="P224" s="215"/>
+      <c r="Q224" s="314"/>
+    </row>
+    <row r="225" ht="15.75" spans="1:17">
+      <c r="A225" s="347"/>
+      <c r="B225" s="191"/>
+      <c r="C225" s="191"/>
+      <c r="D225" s="191"/>
+      <c r="E225" s="191"/>
+      <c r="F225" s="191"/>
+      <c r="G225" s="191"/>
+      <c r="H225" s="191"/>
+      <c r="I225" s="191"/>
+      <c r="J225" s="191"/>
+      <c r="K225" s="191"/>
+      <c r="L225" s="191"/>
+      <c r="M225" s="191"/>
+      <c r="N225" s="191"/>
+      <c r="O225" s="191"/>
+      <c r="P225" s="192"/>
+      <c r="Q225" s="192"/>
+    </row>
+    <row r="226" ht="15.75" spans="1:17">
+      <c r="A226" s="347"/>
+      <c r="B226" s="191"/>
+      <c r="C226" s="191"/>
+      <c r="D226" s="191"/>
+      <c r="E226" s="191"/>
+      <c r="F226" s="191"/>
+      <c r="G226" s="191"/>
+      <c r="H226" s="191"/>
+      <c r="I226" s="191"/>
+      <c r="J226" s="191"/>
+      <c r="K226" s="191"/>
+      <c r="L226" s="191"/>
+      <c r="M226" s="191"/>
+      <c r="N226" s="191"/>
+      <c r="O226" s="191"/>
+      <c r="P226" s="192"/>
+      <c r="Q226" s="192"/>
+    </row>
+    <row r="227" ht="15.75" spans="1:17">
+      <c r="A227" s="347"/>
+      <c r="B227" s="191"/>
+      <c r="C227" s="191"/>
+      <c r="D227" s="191"/>
+      <c r="E227" s="191"/>
+      <c r="F227" s="191"/>
+      <c r="G227" s="191"/>
+      <c r="H227" s="191"/>
+      <c r="I227" s="191"/>
+      <c r="J227" s="191"/>
+      <c r="K227" s="191"/>
+      <c r="L227" s="191"/>
+      <c r="M227" s="191"/>
+      <c r="N227" s="191"/>
+      <c r="O227" s="191"/>
+      <c r="P227" s="192"/>
+      <c r="Q227" s="192"/>
+    </row>
+    <row r="228" ht="15.75" spans="1:17">
+      <c r="A228" s="347"/>
+      <c r="B228" s="191"/>
+      <c r="C228" s="191"/>
+      <c r="D228" s="191"/>
+      <c r="E228" s="191"/>
+      <c r="F228" s="191"/>
+      <c r="G228" s="191"/>
+      <c r="H228" s="191"/>
+      <c r="I228" s="191"/>
+      <c r="J228" s="191"/>
+      <c r="K228" s="191"/>
+      <c r="L228" s="191"/>
+      <c r="M228" s="191"/>
+      <c r="N228" s="191"/>
+      <c r="O228" s="191"/>
+      <c r="P228" s="192"/>
+      <c r="Q228" s="192"/>
+    </row>
+    <row r="229" ht="15.75" spans="1:17">
+      <c r="A229" s="348"/>
+      <c r="B229" s="203"/>
+      <c r="C229" s="203"/>
+      <c r="D229" s="203"/>
+      <c r="E229" s="203"/>
+      <c r="F229" s="203"/>
+      <c r="G229" s="203"/>
+      <c r="H229" s="203"/>
+      <c r="I229" s="203"/>
+      <c r="J229" s="203"/>
+      <c r="K229" s="203"/>
+      <c r="L229" s="203"/>
+      <c r="M229" s="203"/>
+      <c r="N229" s="203"/>
+      <c r="O229" s="203"/>
+      <c r="P229" s="203"/>
+      <c r="Q229" s="203"/>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="A230" s="349"/>
+      <c r="B230" s="350"/>
+      <c r="C230" s="350"/>
+      <c r="D230" s="350"/>
+      <c r="E230" s="350"/>
+      <c r="F230" s="350"/>
+      <c r="G230" s="350"/>
+      <c r="H230" s="350"/>
+      <c r="I230" s="350"/>
+      <c r="J230" s="350"/>
+      <c r="K230" s="350"/>
+      <c r="L230" s="350"/>
+      <c r="M230" s="350"/>
+      <c r="N230" s="350"/>
+      <c r="O230" s="350"/>
+      <c r="P230" s="350"/>
+      <c r="Q230" s="350"/>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="A231" s="349"/>
+      <c r="B231" s="350"/>
+      <c r="C231" s="350"/>
+      <c r="D231" s="350"/>
+      <c r="E231" s="350"/>
+      <c r="F231" s="350"/>
+      <c r="G231" s="350"/>
+      <c r="H231" s="350"/>
+      <c r="I231" s="350"/>
+      <c r="J231" s="350"/>
+      <c r="K231" s="350"/>
+      <c r="L231" s="350"/>
+      <c r="M231" s="350"/>
+      <c r="N231" s="350"/>
+      <c r="O231" s="350"/>
+      <c r="P231" s="350"/>
+      <c r="Q231" s="350"/>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232" s="351"/>
+      <c r="B232" s="350"/>
+      <c r="C232" s="350"/>
+      <c r="D232" s="350"/>
+      <c r="E232" s="350"/>
+      <c r="F232" s="350"/>
+      <c r="G232" s="350"/>
+      <c r="H232" s="350"/>
+      <c r="I232" s="350"/>
+      <c r="J232" s="350"/>
+      <c r="K232" s="350"/>
+      <c r="L232" s="350"/>
+      <c r="M232" s="350"/>
+      <c r="N232" s="350"/>
+      <c r="O232" s="350"/>
+      <c r="P232" s="350"/>
+      <c r="Q232" s="350"/>
+    </row>
+    <row r="233" spans="1:17">
+      <c r="A233" s="352"/>
+      <c r="B233" s="353"/>
+      <c r="C233" s="350"/>
+      <c r="D233" s="350"/>
+      <c r="E233" s="350"/>
+      <c r="F233" s="350"/>
+      <c r="G233" s="350"/>
+      <c r="H233" s="350"/>
+      <c r="I233" s="350"/>
+      <c r="J233" s="350"/>
+      <c r="K233" s="350"/>
+      <c r="L233" s="350"/>
+      <c r="M233" s="350"/>
+      <c r="N233" s="350"/>
+      <c r="O233" s="350"/>
+      <c r="P233" s="350"/>
+      <c r="Q233" s="350"/>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="A234" s="352"/>
+      <c r="B234" s="353"/>
+      <c r="C234" s="350"/>
+      <c r="D234" s="350"/>
+      <c r="E234" s="350"/>
+      <c r="F234" s="350"/>
+      <c r="G234" s="350"/>
+      <c r="H234" s="350"/>
+      <c r="I234" s="350"/>
+      <c r="J234" s="350"/>
+      <c r="K234" s="350"/>
+      <c r="L234" s="350"/>
+      <c r="M234" s="350"/>
+      <c r="N234" s="350"/>
+      <c r="O234" s="350"/>
+      <c r="P234" s="350"/>
+      <c r="Q234" s="350"/>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" s="352"/>
+      <c r="B235" s="353"/>
+      <c r="C235" s="350"/>
+      <c r="D235" s="350"/>
+      <c r="E235" s="350"/>
+      <c r="F235" s="350"/>
+      <c r="G235" s="350"/>
+      <c r="H235" s="350"/>
+      <c r="I235" s="350"/>
+      <c r="J235" s="350"/>
+      <c r="K235" s="350"/>
+      <c r="L235" s="350"/>
+      <c r="M235" s="350"/>
+      <c r="N235" s="350"/>
+      <c r="O235" s="350"/>
+      <c r="P235" s="350"/>
+      <c r="Q235" s="350"/>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="A236" s="354"/>
+      <c r="B236" s="353"/>
+      <c r="C236" s="350"/>
+      <c r="D236" s="350"/>
+      <c r="E236" s="350"/>
+      <c r="F236" s="350"/>
+      <c r="G236" s="350"/>
+      <c r="H236" s="350"/>
+      <c r="I236" s="350"/>
+      <c r="J236" s="350"/>
+      <c r="K236" s="350"/>
+      <c r="L236" s="350"/>
+      <c r="M236" s="350"/>
+      <c r="N236" s="350"/>
+      <c r="O236" s="350"/>
+      <c r="P236" s="350"/>
+      <c r="Q236" s="350"/>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" s="355"/>
+      <c r="B237" s="355"/>
+      <c r="C237" s="355"/>
+      <c r="D237" s="355"/>
+      <c r="E237" s="355"/>
+      <c r="F237" s="355"/>
+      <c r="G237" s="355"/>
+      <c r="H237" s="355"/>
+      <c r="I237" s="355"/>
+      <c r="J237" s="355"/>
+      <c r="K237" s="355"/>
+      <c r="L237" s="355"/>
+      <c r="M237" s="355"/>
+      <c r="N237" s="355"/>
+      <c r="O237" s="355"/>
+      <c r="P237" s="355"/>
+      <c r="Q237" s="355"/>
+    </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="261">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
@@ -5458,8 +11121,132 @@
     <mergeCell ref="K67:O67"/>
     <mergeCell ref="K68:O68"/>
     <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="D89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="D90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="D91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="C94:Q94"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="K98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="C114:I114"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="B117:Q117"/>
+    <mergeCell ref="A122:Q122"/>
+    <mergeCell ref="A123:Q123"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="B127:J127"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="B129:J129"/>
+    <mergeCell ref="L129:Q129"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="C139:J139"/>
+    <mergeCell ref="M139:Q139"/>
+    <mergeCell ref="B142:O142"/>
+    <mergeCell ref="K143:O143"/>
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="A147:O147"/>
+    <mergeCell ref="A164:O164"/>
+    <mergeCell ref="P164:Q164"/>
+    <mergeCell ref="P165:Q165"/>
+    <mergeCell ref="D166:O166"/>
+    <mergeCell ref="P166:Q166"/>
+    <mergeCell ref="D167:O167"/>
+    <mergeCell ref="P167:Q167"/>
+    <mergeCell ref="D168:O168"/>
+    <mergeCell ref="P168:Q168"/>
+    <mergeCell ref="P169:Q169"/>
+    <mergeCell ref="A170:O170"/>
+    <mergeCell ref="C171:Q171"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="K174:O174"/>
+    <mergeCell ref="P174:Q174"/>
+    <mergeCell ref="K175:O175"/>
+    <mergeCell ref="P175:Q175"/>
+    <mergeCell ref="A178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="P178:Q178"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="G186:I186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="G188:I188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="C191:I191"/>
+    <mergeCell ref="A193:J193"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="A199:Q199"/>
+    <mergeCell ref="A200:Q200"/>
+    <mergeCell ref="A202:J202"/>
+    <mergeCell ref="K202:M202"/>
+    <mergeCell ref="B203:J203"/>
+    <mergeCell ref="K203:M203"/>
+    <mergeCell ref="N203:P203"/>
+    <mergeCell ref="B204:J204"/>
+    <mergeCell ref="K204:M204"/>
+    <mergeCell ref="N204:P204"/>
+    <mergeCell ref="B205:J205"/>
+    <mergeCell ref="K205:M205"/>
+    <mergeCell ref="B206:J206"/>
+    <mergeCell ref="L206:Q206"/>
+    <mergeCell ref="C215:J215"/>
+    <mergeCell ref="M215:Q215"/>
+    <mergeCell ref="C216:J216"/>
+    <mergeCell ref="M216:Q216"/>
+    <mergeCell ref="B219:O219"/>
+    <mergeCell ref="K220:O220"/>
+    <mergeCell ref="K221:O221"/>
+    <mergeCell ref="K222:O222"/>
+    <mergeCell ref="K223:O223"/>
+    <mergeCell ref="A224:O224"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J220:J221"/>
+    <mergeCell ref="J222:J223"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:J12"/>
@@ -5487,6 +11274,60 @@
     <mergeCell ref="A67:B68"/>
     <mergeCell ref="C67:I68"/>
     <mergeCell ref="P68:Q69"/>
+    <mergeCell ref="A94:B96"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="C97:J98"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:Q100"/>
+    <mergeCell ref="A102:J108"/>
+    <mergeCell ref="K130:Q133"/>
+    <mergeCell ref="A134:B135"/>
+    <mergeCell ref="K134:L135"/>
+    <mergeCell ref="C134:J135"/>
+    <mergeCell ref="M134:Q135"/>
+    <mergeCell ref="A136:B137"/>
+    <mergeCell ref="K136:L137"/>
+    <mergeCell ref="C136:J137"/>
+    <mergeCell ref="M136:Q137"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="K138:L139"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="K140:L141"/>
+    <mergeCell ref="C140:J141"/>
+    <mergeCell ref="M140:Q141"/>
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="C143:I144"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="A145:B146"/>
+    <mergeCell ref="C145:I146"/>
+    <mergeCell ref="P146:Q147"/>
+    <mergeCell ref="A171:B173"/>
+    <mergeCell ref="A174:B175"/>
+    <mergeCell ref="C174:J175"/>
+    <mergeCell ref="A176:B177"/>
+    <mergeCell ref="C176:Q177"/>
+    <mergeCell ref="A179:J185"/>
+    <mergeCell ref="K207:Q210"/>
+    <mergeCell ref="A211:B212"/>
+    <mergeCell ref="K211:L212"/>
+    <mergeCell ref="C211:J212"/>
+    <mergeCell ref="M211:Q212"/>
+    <mergeCell ref="A213:B214"/>
+    <mergeCell ref="K213:L214"/>
+    <mergeCell ref="C213:J214"/>
+    <mergeCell ref="M213:Q214"/>
+    <mergeCell ref="A215:B216"/>
+    <mergeCell ref="K215:L216"/>
+    <mergeCell ref="A217:B218"/>
+    <mergeCell ref="K217:L218"/>
+    <mergeCell ref="C217:J218"/>
+    <mergeCell ref="M217:Q218"/>
+    <mergeCell ref="A220:B221"/>
+    <mergeCell ref="C220:I221"/>
+    <mergeCell ref="P220:Q221"/>
+    <mergeCell ref="A222:B223"/>
+    <mergeCell ref="C222:I223"/>
+    <mergeCell ref="P223:Q224"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
